--- a/reports/report.xlsx
+++ b/reports/report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D573"/>
+  <dimension ref="A1:D549"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,17 +463,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Apple faces the most disruptive threat it has seen in the iPhone era</t>
+          <t>Apple fined €1.8bn by EU for stifling competition</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/e5936e3d-49b6-4b3c-a5fb-27f3371c5934</t>
+          <t>https://www.ft.com/content/10ed8e38-f3a8-4eea-bb3c-9913c6d8cb2e</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-03-04</t>
         </is>
       </c>
     </row>
@@ -485,17 +485,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Apple reverses course on plan to cut off ‘progressive web apps’ in EU</t>
+          <t>Apple stand-off tests investor concern over workers’ rights</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/6e33cacc-3f92-43f2-a1ad-ca860fb553f0</t>
+          <t>https://www.ft.com/content/7b161f44-d1ac-4d7a-95e8-bd8ab5459534</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-03-04</t>
         </is>
       </c>
     </row>
@@ -507,17 +507,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FirstFT: Apple abandons secretive electric vehicle project</t>
+          <t>Apple fined €1.8bn for breaking EU law over music streaming</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/6ac534a4-3837-440a-a4a5-d70b3423b8ba</t>
+          <t>https://www.ft.com/content/05606b16-8c4d-4535-893e-af909fcf22f0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-02-28</t>
+          <t>2024-03-04</t>
         </is>
       </c>
     </row>
@@ -529,17 +529,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Apple parks its electric car project in sign of EV industry’s struggles</t>
+          <t>Why app developers think the EU’s first ever Apple fine is ‘a joke’</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/a5bc85c6-e434-4321-901c-dd8045a354cf</t>
+          <t>https://www.ft.com/content/55505db4-2542-4662-8a20-797ba1474982</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-02-28</t>
+          <t>2024-03-04</t>
         </is>
       </c>
     </row>
@@ -551,17 +551,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>‘Sell Apple’</t>
+          <t>Apple faces the most disruptive threat it has seen in the iPhone era</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/f62d7af3-8c30-486f-bc84-b9c8dd5d800f</t>
+          <t>https://www.ft.com/content/e5936e3d-49b6-4b3c-a5fb-27f3371c5934</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-02-27</t>
+          <t>2024-03-01</t>
         </is>
       </c>
     </row>
@@ -573,17 +573,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Apple cancels secretive electric car project in shift to focus on AI</t>
+          <t>Apple reverses course on plan to cut off ‘progressive web apps’ in EU</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/026e4b9e-38b7-4c3b-81f1-1cb56e4c7732</t>
+          <t>https://www.ft.com/content/6e33cacc-3f92-43f2-a1ad-ca860fb553f0</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-02-27</t>
+          <t>2024-03-01</t>
         </is>
       </c>
     </row>
@@ -595,17 +595,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Apple cancels secretive electric car project in shift to focus on AI</t>
+          <t>FirstFT: Apple abandons secretive electric vehicle project</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/123dbb4f-13e2-4c50-bd49-332f03d1d9dd</t>
+          <t>https://www.ft.com/content/6ac534a4-3837-440a-a4a5-d70b3423b8ba</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-02-27</t>
+          <t>2024-02-28</t>
         </is>
       </c>
     </row>
@@ -617,17 +617,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Apple cancels secretive electric car project in shift to focus on AI</t>
+          <t>Apple parks its electric car project in sign of EV industry’s struggles</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/78bc9f62-8450-45c0-8c59-c5d87a122825</t>
+          <t>https://www.ft.com/content/a5bc85c6-e434-4321-901c-dd8045a354cf</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-02-27</t>
+          <t>2024-02-28</t>
         </is>
       </c>
     </row>
@@ -639,12 +639,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Large Apple shareholders seek AI disclosures</t>
+          <t>‘Sell Apple’</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/387c446c-55e0-4f54-a4b4-80bf9d5bc2f3</t>
+          <t>https://www.ft.com/content/f62d7af3-8c30-486f-bc84-b9c8dd5d800f</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -661,17 +661,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>EU seeks to investigate Apple over cutting off web apps</t>
+          <t>Apple cancels secretive electric car project in shift to focus on AI</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/d2f7328c-5851-4f16-8f8d-93f0098b6adc</t>
+          <t>https://www.ft.com/content/026e4b9e-38b7-4c3b-81f1-1cb56e4c7732</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-02-26</t>
+          <t>2024-02-27</t>
         </is>
       </c>
     </row>
@@ -683,17 +683,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Thousands of Iranians fall victim to cut-price Apple iPhone scam</t>
+          <t>Apple cancels secretive electric car project in shift to focus on AI</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/47b29705-863b-4856-b41d-83d2dbd4316f</t>
+          <t>https://www.ft.com/content/123dbb4f-13e2-4c50-bd49-332f03d1d9dd</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-02-23</t>
+          <t>2024-02-27</t>
         </is>
       </c>
     </row>
@@ -705,17 +705,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Apple rivals lobby EU over App Store dominance</t>
+          <t>Apple cancels secretive electric car project in shift to focus on AI</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/b4800998-5658-4068-b7f8-22a1f64c10ae</t>
+          <t>https://www.ft.com/content/78bc9f62-8450-45c0-8c59-c5d87a122825</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-02-21</t>
+          <t>2024-02-27</t>
         </is>
       </c>
     </row>
@@ -727,17 +727,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>EU to hit Apple with first ever fine in €500mn music streaming penalty</t>
+          <t>Large Apple shareholders seek AI disclosures</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/1e677a7e-9494-4f5b-a724-9e58ef26b34f</t>
+          <t>https://www.ft.com/content/387c446c-55e0-4f54-a4b4-80bf9d5bc2f3</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-02-18</t>
+          <t>2024-02-27</t>
         </is>
       </c>
     </row>
@@ -749,17 +749,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Buffett’s Berkshire Hathaway reduces stake in Apple</t>
+          <t>EU seeks to investigate Apple over cutting off web apps</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/e2251128-dcb3-4c38-980e-35bdce37e998</t>
+          <t>https://www.ft.com/content/d2f7328c-5851-4f16-8f8d-93f0098b6adc</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-02-14</t>
+          <t>2024-02-26</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Buffett’s Berkshire Hathaway reduces stake in Apple</t>
+          <t>Thousands of Iranians fall victim to cut-price Apple iPhone scam</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/6cb9cd8c-e709-4092-92ff-26ee79bbce4d</t>
+          <t>https://www.ft.com/content/47b29705-863b-4856-b41d-83d2dbd4316f</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-02-14</t>
+          <t>2024-02-23</t>
         </is>
       </c>
     </row>
@@ -793,17 +793,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Warren Buffett’s Berkshire Hathaway pares its stake in Apple</t>
+          <t>Apple rivals lobby EU over App Store dominance</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/780409aa-8285-4c58-bb1e-97c6f69a87b9</t>
+          <t>https://www.ft.com/content/b4800998-5658-4068-b7f8-22a1f64c10ae</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-02-14</t>
+          <t>2024-02-21</t>
         </is>
       </c>
     </row>
@@ -815,17 +815,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Independent record labels push back on Apple’s pay plans</t>
+          <t>EU to hit Apple with first ever fine in €500mn music streaming penalty</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/dc5a6ef2-acc6-456f-830a-84baad7c3db0</t>
+          <t>https://www.ft.com/content/1e677a7e-9494-4f5b-a724-9e58ef26b34f</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-02-02</t>
+          <t>2024-02-18</t>
         </is>
       </c>
     </row>
@@ -837,17 +837,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Apple ends run of revenue declines with services boost</t>
+          <t>Buffett’s Berkshire Hathaway reduces stake in Apple</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/a06e38cd-72ee-40a5-951c-35810f1522d8</t>
+          <t>https://www.ft.com/content/e2251128-dcb3-4c38-980e-35bdce37e998</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-02-01</t>
+          <t>2024-02-14</t>
         </is>
       </c>
     </row>
@@ -859,17 +859,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Apple snaps run of revenue declines with services boost</t>
+          <t>Buffett’s Berkshire Hathaway reduces stake in Apple</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/cd5f0c71-ed03-4681-8fa3-1b04ca55d38e</t>
+          <t>https://www.ft.com/content/6cb9cd8c-e709-4092-92ff-26ee79bbce4d</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-02-01</t>
+          <t>2024-02-14</t>
         </is>
       </c>
     </row>
@@ -881,17 +881,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Apple’s slow-burn approach to products</t>
+          <t>Warren Buffett’s Berkshire Hathaway pares its stake in Apple</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/02066748-97f4-4197-81ef-04311177d610</t>
+          <t>https://www.ft.com/content/780409aa-8285-4c58-bb1e-97c6f69a87b9</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-01-25</t>
+          <t>2024-02-14</t>
         </is>
       </c>
     </row>
@@ -903,17 +903,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Apple pays $12.3mn fine to Moscow antitrust regulator</t>
+          <t>Apple ends run of revenue declines with services boost</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/8ea45aef-622a-438c-975e-04df99754927</t>
+          <t>https://www.ft.com/content/a06e38cd-72ee-40a5-951c-35810f1522d8</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2024-01-22</t>
+          <t>2024-02-01</t>
         </is>
       </c>
     </row>
@@ -925,17 +925,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>US court lifts stay on Apple Watch sales ban</t>
+          <t>Apple snaps run of revenue declines with services boost</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/f1be3899-1054-4f1d-b870-fc357f3edbfa</t>
+          <t>https://www.ft.com/content/cd5f0c71-ed03-4681-8fa3-1b04ca55d38e</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2024-01-17</t>
+          <t>2024-02-01</t>
         </is>
       </c>
     </row>
@@ -947,17 +947,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>US court lifts stay on Apple Watch sales ban</t>
+          <t>Apple’s slow-burn approach to products</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/ec59fda7-db78-4bc9-9bc2-a42d2ed0a5da</t>
+          <t>https://www.ft.com/content/02066748-97f4-4197-81ef-04311177d610</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2024-01-17</t>
+          <t>2024-01-25</t>
         </is>
       </c>
     </row>
@@ -969,17 +969,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Microsoft overtakes Apple as world’s most valuable listed company</t>
+          <t>US court lifts stay on Apple Watch sales ban</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/df78c0ec-fb7f-466a-b04c-7cc9a05fb063</t>
+          <t>https://www.ft.com/content/f1be3899-1054-4f1d-b870-fc357f3edbfa</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2024-01-11</t>
+          <t>2024-01-17</t>
         </is>
       </c>
     </row>
@@ -991,17 +991,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Al Gore and James Bell to leave Apple’s board</t>
+          <t>US court lifts stay on Apple Watch sales ban</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/6a1f20fb-b651-43be-bff0-135a9716c529</t>
+          <t>https://www.ft.com/content/ec59fda7-db78-4bc9-9bc2-a42d2ed0a5da</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2024-01-11</t>
+          <t>2024-01-17</t>
         </is>
       </c>
     </row>
@@ -1035,17 +1035,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Fewer trips, fewer planes: business travellers rethink old habits</t>
+          <t>UK Labour demands immediate humanitarian ceasefire in Gaza</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/d70aa063-d7d0-4e6c-a2ee-e52bb46dcce3</t>
+          <t>https://www.ft.com/content/64fea0d2-f327-4110-b34b-028212127c06</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2024-02-25</t>
+          <t>2024-02-20</t>
         </is>
       </c>
     </row>
@@ -1057,17 +1057,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>UK Labour demands immediate humanitarian ceasefire in Gaza</t>
+          <t>Transcript: Why Elon Musk is breaking up with Delaware</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/64fea0d2-f327-4110-b34b-028212127c06</t>
+          <t>https://www.ft.com/content/818a35fb-3965-4501-934a-dc22cb717a4f</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2024-02-20</t>
+          <t>2024-02-14</t>
         </is>
       </c>
     </row>
@@ -1079,17 +1079,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transcript: Why Elon Musk is breaking up with Delaware</t>
+          <t>Why London homebuyers are still looking to Stamford</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/818a35fb-3965-4501-934a-dc22cb717a4f</t>
+          <t>https://www.ft.com/content/642ea2b4-4d9d-4e14-a302-d11130cfd624</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2024-02-14</t>
+          <t>2024-01-31</t>
         </is>
       </c>
     </row>
@@ -1101,17 +1101,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Why London homebuyers are still looking to Stamford</t>
+          <t>Texas is throwing down a legal challenge to Delaware</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/642ea2b4-4d9d-4e14-a302-d11130cfd624</t>
+          <t>https://www.ft.com/content/a02b96df-9ee1-4b3b-a31e-087b734840a1</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2024-01-31</t>
+          <t>2024-01-29</t>
         </is>
       </c>
     </row>
@@ -1123,17 +1123,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Texas is throwing down a legal challenge to Delaware</t>
+          <t>The migrants who are pawns in the politics of US immigration</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/a02b96df-9ee1-4b3b-a31e-087b734840a1</t>
+          <t>https://www.ft.com/content/dfa1ca2e-4b62-46cf-8bb7-65d5f400defc</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2024-01-29</t>
+          <t>2024-01-08</t>
         </is>
       </c>
     </row>
@@ -1145,17 +1145,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>The migrants who are pawns in the politics of US immigration</t>
+          <t>New York files $708mn lawsuit over migrants bussed from Texas</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/dfa1ca2e-4b62-46cf-8bb7-65d5f400defc</t>
+          <t>https://www.ft.com/content/47c16a96-2644-4d04-896f-295d1afd987d</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
+          <t>2024-01-04</t>
         </is>
       </c>
     </row>
@@ -1167,12 +1167,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>New York files $708mn lawsuit over migrants bussed from Texas</t>
+          <t>New York City launches $700mn lawsuit against bus companies that carried in migrants</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/47c16a96-2644-4d04-896f-295d1afd987d</t>
+          <t>https://www.ft.com/content/4369a411-df6e-42d7-b376-dae9f19d81ab</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/4369a411-df6e-42d7-b376-dae9f19d81ab</t>
+          <t>https://www.ft.com/content/0feca597-0ec2-4878-8c2c-6f7fe2588c1f</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1211,17 +1211,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>New York City launches $700mn lawsuit against bus companies that carried in migrants</t>
+          <t>UK fund launches fall to 20-year low</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/0feca597-0ec2-4878-8c2c-6f7fe2588c1f</t>
+          <t>https://www.ft.com/content/6eae906d-e293-4ee5-bfb6-298c64f5062c</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2024-01-04</t>
+          <t>2024-01-02</t>
         </is>
       </c>
     </row>
@@ -1233,17 +1233,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>UK fund launches fall to 20-year low</t>
+          <t>Surge in border crossings creates political upheaval in the US</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/6eae906d-e293-4ee5-bfb6-298c64f5062c</t>
+          <t>https://www.ft.com/content/b1377b06-725f-4c14-bd61-de9d1520bf12</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2024-01-02</t>
+          <t>2023-12-28</t>
         </is>
       </c>
     </row>
@@ -1255,17 +1255,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Surge in border crossings creates political upheaval in the US</t>
+          <t>Baby formula oligopoly draws the attention of regulators</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/b1377b06-725f-4c14-bd61-de9d1520bf12</t>
+          <t>https://www.ft.com/content/9ac543d0-2fd9-4eca-8dad-1a4ef5e42ed1</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2023-12-28</t>
+          <t>2023-12-22</t>
         </is>
       </c>
     </row>
@@ -1277,17 +1277,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Baby formula oligopoly draws the attention of regulators</t>
+          <t>Biden orders top aides to Mexico for border talks amid migrant crisis</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/9ac543d0-2fd9-4eca-8dad-1a4ef5e42ed1</t>
+          <t>https://www.ft.com/content/3301dfa4-d83a-4cb0-8d04-fb800912438a</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2023-12-22</t>
+          <t>2023-12-21</t>
         </is>
       </c>
     </row>
@@ -1299,17 +1299,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Biden orders top aides to Mexico for border talks amid migrant crisis</t>
+          <t>FT Weekend Quiz solutions</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/3301dfa4-d83a-4cb0-8d04-fb800912438a</t>
+          <t>https://www.ft.com/content/0b6a1ab7-2b58-46f3-8e47-3fe51aad92fb</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2023-12-21</t>
+          <t>2023-12-01</t>
         </is>
       </c>
     </row>
@@ -1321,17 +1321,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>FT Weekend Quiz solutions</t>
+          <t>Matthews Asia adds five more ETFs to its actively managed line-up</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/0b6a1ab7-2b58-46f3-8e47-3fe51aad92fb</t>
+          <t>https://www.ft.com/content/7e787466-23c3-46f1-a5a5-ea1a2a0b369d</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2023-12-01</t>
+          <t>2023-09-29</t>
         </is>
       </c>
     </row>
@@ -1673,17 +1673,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>A new front in the climate wars</t>
+          <t>Letter: Literacy for ancient world is like the internet for us</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/139286dc-b291-4f49-b836-66aaa1ff98c1</t>
+          <t>https://www.ft.com/content/883a3087-4486-4825-a43d-2eec403ddc4a</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2024-02-26</t>
+          <t>2024-02-09</t>
         </is>
       </c>
     </row>
@@ -1695,17 +1695,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Letter: Literacy for ancient world is like the internet for us</t>
+          <t>Big Tech boosts profits by $10bn with accounting change to server life estimate</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/883a3087-4486-4825-a43d-2eec403ddc4a</t>
+          <t>https://www.ft.com/content/ad2f407c-633a-431e-874b-44df53acc68a</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2024-02-09</t>
+          <t>2024-02-05</t>
         </is>
       </c>
     </row>
@@ -1717,17 +1717,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Big Tech boosts profits by $10bn with accounting change to server life estimate</t>
+          <t>Meta’s ad rebound may depend too much on China</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/ad2f407c-633a-431e-874b-44df53acc68a</t>
+          <t>https://www.ft.com/content/454ec355-a4b8-4270-b116-52d85d6a10bd</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2024-02-05</t>
+          <t>2024-02-02</t>
         </is>
       </c>
     </row>
@@ -1739,17 +1739,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Meta’s ad rebound may depend too much on China</t>
+          <t>Tech stocks pull Wall Street lower</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/454ec355-a4b8-4270-b116-52d85d6a10bd</t>
+          <t>https://www.ft.com/content/1b5cd749-48e1-45f6-8db7-1b796b6b5e8e</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2024-02-02</t>
+          <t>2024-01-31</t>
         </is>
       </c>
     </row>
@@ -1761,12 +1761,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Tech stocks pull Wall Street lower</t>
+          <t>Big Tech set to drag down Wall Street</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/1b5cd749-48e1-45f6-8db7-1b796b6b5e8e</t>
+          <t>https://www.ft.com/content/8e2b1d6e-ceec-4f14-82e2-902bfed96c09</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1783,17 +1783,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Big Tech set to drag down Wall Street</t>
+          <t>Alphabet misses forecasts for advertising growth in latest quarter</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/8e2b1d6e-ceec-4f14-82e2-902bfed96c09</t>
+          <t>https://www.ft.com/content/cd69bfce-e469-49c7-a5b8-ea1719fc927e</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2024-01-31</t>
+          <t>2024-01-30</t>
         </is>
       </c>
     </row>
@@ -1805,12 +1805,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Alphabet misses forecasts for advertising growth in latest quarter</t>
+          <t>Alphabet’s advertising growth falls short of Wall Street expectations</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/cd69bfce-e469-49c7-a5b8-ea1719fc927e</t>
+          <t>https://www.ft.com/content/df2b7d62-39cd-461e-ac4f-b6ded31a6687</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1827,12 +1827,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Alphabet’s advertising growth falls short of Wall Street expectations</t>
+          <t>US stocks slip ahead of Big Tech earnings</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/df2b7d62-39cd-461e-ac4f-b6ded31a6687</t>
+          <t>https://www.ft.com/content/c3fabd9d-8177-47d2-ab72-67e9d454a969</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>US stocks slip ahead of Big Tech earnings</t>
+          <t>US stocks close lower ahead of Big Tech earnings</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/c3fabd9d-8177-47d2-ab72-67e9d454a969</t>
+          <t>https://www.ft.com/content/4ba0caa4-e22d-4dfe-b46d-c0e98bfc52e5</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1871,12 +1871,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>US stocks close lower ahead of Big Tech earnings</t>
+          <t>US stocks close lower ahead of big tech earnings</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/4ba0caa4-e22d-4dfe-b46d-c0e98bfc52e5</t>
+          <t>https://www.ft.com/content/7c18f5ee-e1d6-4468-bfab-9df3cc63330e</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1893,12 +1893,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>US stocks close lower ahead of big tech earnings</t>
+          <t>The Magnificent 7 value trade</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/7c18f5ee-e1d6-4468-bfab-9df3cc63330e</t>
+          <t>https://www.ft.com/content/f9ea1055-da25-44b5-bb4d-3fc5447fcb0c</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2663,17 +2663,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Help, I’m addicted to wealth porn</t>
+          <t>JBS faces ‘greenwashing’ lawsuit as opposition mounts to NY listing</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/1869e1e6-89b7-4edc-9362-9ff59dfc3d7d</t>
+          <t>https://www.ft.com/content/4335c54a-a099-46c6-9d0f-2f8edff7dc8e</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-03-04</t>
         </is>
       </c>
     </row>
@@ -2685,17 +2685,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Amazon to invest in start-ups that combine AI with robotics</t>
+          <t>Help, I’m addicted to wealth porn</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/7e0e2565-e2d3-4e86-872c-8810633c63b0</t>
+          <t>https://www.ft.com/content/1869e1e6-89b7-4edc-9362-9ff59dfc3d7d</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2024-02-28</t>
+          <t>2024-03-01</t>
         </is>
       </c>
     </row>
@@ -2707,17 +2707,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Amazon lobbyists barred from European parliament</t>
+          <t>Amazon to invest in start-ups that combine AI with robotics</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/e8a11ae1-f4da-425c-beaa-da51cc299237</t>
+          <t>https://www.ft.com/content/7e0e2565-e2d3-4e86-872c-8810633c63b0</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2024-02-27</t>
+          <t>2024-02-28</t>
         </is>
       </c>
     </row>
@@ -2729,12 +2729,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Amazon lobbyists to be barred from European parliament</t>
+          <t>Amazon lobbyists barred from European parliament</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/11d20273-71e8-433d-bcac-c66d919a203a</t>
+          <t>https://www.ft.com/content/e8a11ae1-f4da-425c-beaa-da51cc299237</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2751,17 +2751,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Amazon founder Jeff Bezos sells additional shares for $335mn</t>
+          <t>Amazon lobbyists to be barred from European parliament</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/4d2e150d-d0dc-46ea-95bd-c29e787a9263</t>
+          <t>https://www.ft.com/content/11d20273-71e8-433d-bcac-c66d919a203a</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2024-02-21</t>
+          <t>2024-02-27</t>
         </is>
       </c>
     </row>
@@ -2773,17 +2773,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Following the money behind Amazon oil development</t>
+          <t>Amazon founder Jeff Bezos sells additional shares for $335mn</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/e3ad9d9d-fb7e-4a57-bfc7-126355ebe398</t>
+          <t>https://www.ft.com/content/4d2e150d-d0dc-46ea-95bd-c29e787a9263</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2024-02-19</t>
+          <t>2024-02-21</t>
         </is>
       </c>
     </row>
@@ -2795,17 +2795,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Jeff Bezos sells $2bn in Amazon shares for third time in a week</t>
+          <t>Following the money behind Amazon oil development</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/c3be4535-2f6b-4e9c-b04b-8b4cfe5e11ab</t>
+          <t>https://www.ft.com/content/e3ad9d9d-fb7e-4a57-bfc7-126355ebe398</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2024-02-15</t>
+          <t>2024-02-19</t>
         </is>
       </c>
     </row>
@@ -2839,17 +2839,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Jeff Bezos sells another $2bn in Amazon shares</t>
+          <t>Jeff Bezos sells $2bn in Amazon shares for third time in a week</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/ddaf918b-cbc6-4043-a8b4-491f0c9944d7</t>
+          <t>https://www.ft.com/content/c3be4535-2f6b-4e9c-b04b-8b4cfe5e11ab</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2024-02-13</t>
+          <t>2024-02-15</t>
         </is>
       </c>
     </row>
@@ -2866,7 +2866,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/ad707df6-3d98-495c-9585-699120913de5</t>
+          <t>https://www.ft.com/content/ddaf918b-cbc6-4043-a8b4-491f0c9944d7</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -2883,12 +2883,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Jeff Bezos sold $4bn in Amazon stock over the past week</t>
+          <t>Jeff Bezos sells another $2bn in Amazon shares</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/a811e658-48f4-4227-9551-f41b1c9fa673</t>
+          <t>https://www.ft.com/content/ad707df6-3d98-495c-9585-699120913de5</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -2905,17 +2905,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Amazon strikes ad data deal with Reach as Google kills off cookies</t>
+          <t>Jeff Bezos sold $4bn in Amazon stock over the past week</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/7979b1a3-ded2-4f27-a563-101920bdb379</t>
+          <t>https://www.ft.com/content/a811e658-48f4-4227-9551-f41b1c9fa673</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2024-02-05</t>
+          <t>2024-02-13</t>
         </is>
       </c>
     </row>
@@ -2927,17 +2927,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Amazon predicts cloud growth will gain steam as earnings bounce back</t>
+          <t>Amazon strikes ad data deal with Reach as Google kills off cookies</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/3bd6c1fb-66f8-406a-873e-49659133e0db</t>
+          <t>https://www.ft.com/content/7979b1a3-ded2-4f27-a563-101920bdb379</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2024-02-02</t>
+          <t>2024-02-05</t>
         </is>
       </c>
     </row>
@@ -2949,17 +2949,17 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Amazon issues rosy outlook as cloud division growth accelerates</t>
+          <t>Amazon predicts cloud growth will gain steam as earnings bounce back</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/27e8da65-6723-4ef4-80af-8418def7cc3d</t>
+          <t>https://www.ft.com/content/3bd6c1fb-66f8-406a-873e-49659133e0db</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2024-02-01</t>
+          <t>2024-02-02</t>
         </is>
       </c>
     </row>
@@ -2971,17 +2971,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Amazon pulls $1.45bn iRobot takeover as EU threatens to block deal</t>
+          <t>Amazon issues rosy outlook as cloud division growth accelerates</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/26079713-55a1-4279-bf7a-c33c3eeb87c5</t>
+          <t>https://www.ft.com/content/27e8da65-6723-4ef4-80af-8418def7cc3d</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2024-01-29</t>
+          <t>2024-02-01</t>
         </is>
       </c>
     </row>
@@ -2993,12 +2993,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Amazon scraps $1.45bn iRobot purchase over EU’s threat to block deal</t>
+          <t>Amazon pulls $1.45bn iRobot takeover as EU threatens to block deal</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/ebd997a1-9c22-4c21-a017-64d4b62e564d</t>
+          <t>https://www.ft.com/content/26079713-55a1-4279-bf7a-c33c3eeb87c5</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3015,17 +3015,17 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Amazon workers come together in Union at Sundance Film Festival — review</t>
+          <t>Amazon scraps $1.45bn iRobot purchase over EU’s threat to block deal</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/7bcdc4a9-830f-46ac-95dd-81a43fa65933</t>
+          <t>https://www.ft.com/content/ebd997a1-9c22-4c21-a017-64d4b62e564d</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2024-01-23</t>
+          <t>2024-01-29</t>
         </is>
       </c>
     </row>
@@ -3037,17 +3037,17 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Amazon expands US sports footprint with Diamond streaming deal</t>
+          <t>Amazon workers come together in Union at Sundance Film Festival — review</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/3fc0ae6f-8558-4378-8e1d-45ab99ed17a9</t>
+          <t>https://www.ft.com/content/7bcdc4a9-830f-46ac-95dd-81a43fa65933</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2024-01-17</t>
+          <t>2024-01-23</t>
         </is>
       </c>
     </row>
@@ -3059,17 +3059,17 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>White sands and pink dolphins on an Amazon adventure</t>
+          <t>Amazon expands US sports footprint with Diamond streaming deal</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/2f9f7224-99b0-4491-980c-807a2c1c32b8</t>
+          <t>https://www.ft.com/content/3fc0ae6f-8558-4378-8e1d-45ab99ed17a9</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2024-01-06</t>
+          <t>2024-01-17</t>
         </is>
       </c>
     </row>
@@ -3081,17 +3081,17 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Amazon crackdown on sellers spawns new legal industry</t>
+          <t>White sands and pink dolphins on an Amazon adventure</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/64f01bfe-39b9-49f6-86eb-be96374539cf</t>
+          <t>https://www.ft.com/content/2f9f7224-99b0-4491-980c-807a2c1c32b8</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2024-01-03</t>
+          <t>2024-01-06</t>
         </is>
       </c>
     </row>
@@ -3103,17 +3103,17 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Games Workshop seals deal with Amazon to bring Warhammer to screens</t>
+          <t>Amazon crackdown on sellers spawns new legal industry</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/478813de-2de2-4487-b33d-c4bc9fcfe31c</t>
+          <t>https://www.ft.com/content/64f01bfe-39b9-49f6-86eb-be96374539cf</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2023-12-18</t>
+          <t>2024-01-03</t>
         </is>
       </c>
     </row>
@@ -3125,12 +3125,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Games Workshop: orc ward squad fears Amazon hammering</t>
+          <t>Games Workshop seals deal with Amazon to bring Warhammer to screens</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/6c0f92ad-5a11-4e8d-aa7a-963dc1e973ac</t>
+          <t>https://www.ft.com/content/478813de-2de2-4487-b33d-c4bc9fcfe31c</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3147,17 +3147,17 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Amazon ‘roll-ups’ in ‘cycle of survival’ talks to boost balance sheets</t>
+          <t>Games Workshop: orc ward squad fears Amazon hammering</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/3bfb4b5f-e85a-4887-94b3-97aceaab72cb</t>
+          <t>https://www.ft.com/content/6c0f92ad-5a11-4e8d-aa7a-963dc1e973ac</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2023-11-28</t>
+          <t>2023-12-18</t>
         </is>
       </c>
     </row>
@@ -3169,17 +3169,17 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Amazon to sell Hyundai vehicles online in 2024</t>
+          <t>Amazon’s $1.45bn iRobot deal draws EU antitrust warning</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/d202b41b-473c-457b-863d-502eff33cabd</t>
+          <t>https://www.ft.com/content/48ba1f89-ba60-447a-8cbf-06ae39c0d009</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-11-27</t>
         </is>
       </c>
     </row>
@@ -4841,17 +4841,17 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Why the cost of chocolate will keep rising</t>
+          <t>Consumer groups look for ways to revive growth as price rises ease</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/4ea3116d-6a55-4d14-8a47-8988209dc1e5</t>
+          <t>https://www.ft.com/content/29c1654c-0c9e-4c58-945d-106b0aa7d0da</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-03-03</t>
         </is>
       </c>
     </row>
@@ -4863,17 +4863,17 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Cocoa prices soar to record high as El Niño batters West African growers</t>
+          <t>Why the cost of chocolate will keep rising</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/c163633a-cd9e-4962-8b7f-3d6c44463405</t>
+          <t>https://www.ft.com/content/4ea3116d-6a55-4d14-8a47-8988209dc1e5</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>2024-02-09</t>
+          <t>2024-03-01</t>
         </is>
       </c>
     </row>
@@ -4885,17 +4885,17 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>What to watch in North America today</t>
+          <t>Cocoa prices soar to record high as El Niño batters West African growers</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/3b7a468c-3223-4f7d-8b88-d984b96d2cb0</t>
+          <t>https://www.ft.com/content/c163633a-cd9e-4962-8b7f-3d6c44463405</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>2024-02-08</t>
+          <t>2024-02-09</t>
         </is>
       </c>
     </row>
@@ -4907,12 +4907,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>FirstFT: China’s prices fall at fastest rate in 15 years</t>
+          <t>What to watch in North America today</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/c433bc0d-13cb-4708-86a6-f4d6a7f1163e</t>
+          <t>https://www.ft.com/content/3b7a468c-3223-4f7d-8b88-d984b96d2cb0</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -4929,12 +4929,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Transcript: How not to pick stocks</t>
+          <t>FirstFT: China’s prices fall at fastest rate in 15 years</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/2dc8e6db-9d86-401f-9e4f-34c6dae5f0af</t>
+          <t>https://www.ft.com/content/c433bc0d-13cb-4708-86a6-f4d6a7f1163e</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -4951,17 +4951,17 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Mars joins push into premium with Hotel Chocolat deal</t>
+          <t>Transcript: How not to pick stocks</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/4ef8449c-69c0-4078-80eb-a617ba5b0c98</t>
+          <t>https://www.ft.com/content/2dc8e6db-9d86-401f-9e4f-34c6dae5f0af</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>2023-11-20</t>
+          <t>2024-02-08</t>
         </is>
       </c>
     </row>
@@ -4973,17 +4973,17 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>New York sues PepsiCo over plastic pollution</t>
+          <t>Mars joins push into premium with Hotel Chocolat deal</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/b1457d6f-aaca-49cc-8675-520b6a1166b4</t>
+          <t>https://www.ft.com/content/4ef8449c-69c0-4078-80eb-a617ba5b0c98</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>2023-11-15</t>
+          <t>2023-11-20</t>
         </is>
       </c>
     </row>
@@ -4995,17 +4995,17 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Hershey: snack maker’s valuation slims on diet drug fears</t>
+          <t>New York sues PepsiCo over plastic pollution</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/3caaed96-bc3f-40cd-951d-411811d41238</t>
+          <t>https://www.ft.com/content/b1457d6f-aaca-49cc-8675-520b6a1166b4</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>2023-10-27</t>
+          <t>2023-11-15</t>
         </is>
       </c>
     </row>
@@ -5017,17 +5017,17 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>US earnings wrap</t>
+          <t>Hershey: snack maker’s valuation slims on diet drug fears</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/9dcd2fcf-b6c4-4689-a987-0af61e9a88d7</t>
+          <t>https://www.ft.com/content/3caaed96-bc3f-40cd-951d-411811d41238</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>2023-10-26</t>
+          <t>2023-10-27</t>
         </is>
       </c>
     </row>
@@ -5039,12 +5039,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>What to watch in North America today</t>
+          <t>US earnings wrap</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/798090f9-00f8-46c1-98ed-5f9f665ea056</t>
+          <t>https://www.ft.com/content/9dcd2fcf-b6c4-4689-a987-0af61e9a88d7</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -5061,12 +5061,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>FirstFT: Israel launches biggest incursion yet into Gaza</t>
+          <t>What to watch in North America today</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/a7819c96-89ca-4c95-b2d5-269cc644a9e3</t>
+          <t>https://www.ft.com/content/798090f9-00f8-46c1-98ed-5f9f665ea056</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -5083,17 +5083,17 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Earnings season peaks while ECB and Israel set interest rates</t>
+          <t>FirstFT: Israel launches biggest incursion yet into Gaza</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/e4c08da0-aefd-4ca2-8be0-a4be8b5b44d1</t>
+          <t>https://www.ft.com/content/a7819c96-89ca-4c95-b2d5-269cc644a9e3</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>2023-10-22</t>
+          <t>2023-10-26</t>
         </is>
       </c>
     </row>
@@ -5105,17 +5105,17 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Predictions that weight-loss drugs will dampen appetite hard to swallow for snacks makers</t>
+          <t>Earnings season peaks while ECB and Israel set interest rates</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/a6715596-eba5-43cd-a1cf-1efe929ed06b</t>
+          <t>https://www.ft.com/content/e4c08da0-aefd-4ca2-8be0-a4be8b5b44d1</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>2023-10-16</t>
+          <t>2023-10-22</t>
         </is>
       </c>
     </row>
@@ -5127,17 +5127,17 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Extreme weather hits lovers of sweet treats in the pocket</t>
+          <t>Predictions that weight-loss drugs will dampen appetite hard to swallow for snacks makers</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/4555bfe2-2d8f-49eb-b341-1b2f3f2e9190</t>
+          <t>https://www.ft.com/content/a6715596-eba5-43cd-a1cf-1efe929ed06b</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2023-10-16</t>
         </is>
       </c>
     </row>
@@ -5149,17 +5149,17 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>What to watch in North America today</t>
+          <t>Extreme weather hits lovers of sweet treats in the pocket</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/8dccd2a3-c262-4f68-bb4f-def2cb46e01b</t>
+          <t>https://www.ft.com/content/4555bfe2-2d8f-49eb-b341-1b2f3f2e9190</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>2023-07-27</t>
+          <t>2023-09-30</t>
         </is>
       </c>
     </row>
@@ -5171,12 +5171,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>FirstFT: Fed raises rates to highest level in 22 years</t>
+          <t>What to watch in North America today</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/028107d4-cdff-47df-b5a4-126006983f4f</t>
+          <t>https://www.ft.com/content/8dccd2a3-c262-4f68-bb4f-def2cb46e01b</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -5193,17 +5193,17 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Risers and fallers in the US</t>
+          <t>FirstFT: Fed raises rates to highest level in 22 years</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/d557ca25-bee9-4816-9f90-783c51b9af00</t>
+          <t>https://www.ft.com/content/028107d4-cdff-47df-b5a4-126006983f4f</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>2023-06-28</t>
+          <t>2023-07-27</t>
         </is>
       </c>
     </row>
@@ -5215,17 +5215,17 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Consumer goods groups face retailers’ resistance over higher prices</t>
+          <t>Risers and fallers in the US</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/04e5c52e-b832-47cf-82bf-fb23f9881065</t>
+          <t>https://www.ft.com/content/d557ca25-bee9-4816-9f90-783c51b9af00</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>2023-05-13</t>
+          <t>2023-06-28</t>
         </is>
       </c>
     </row>
@@ -5237,17 +5237,17 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Meta sells $8.5bn in new debt as several US companies tap bond market</t>
+          <t>Consumer goods groups face retailers’ resistance over higher prices</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/d202859b-77c8-454d-becc-307eb2f7c52a</t>
+          <t>https://www.ft.com/content/04e5c52e-b832-47cf-82bf-fb23f9881065</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>2023-05-01</t>
+          <t>2023-05-13</t>
         </is>
       </c>
     </row>
@@ -5259,12 +5259,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>US regional bank shares drop after First Republic failure</t>
+          <t>Meta sells $8.5bn in new debt as several US companies tap bond market</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/fce2e2a0-2b07-481b-afa1-5e0c4209ca81</t>
+          <t>https://www.ft.com/content/d202859b-77c8-454d-becc-307eb2f7c52a</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -5281,17 +5281,17 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Back to life</t>
+          <t>US regional bank shares drop after First Republic failure</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/7870486b-c5b0-48d4-9a53-178569f96b10</t>
+          <t>https://www.ft.com/content/fce2e2a0-2b07-481b-afa1-5e0c4209ca81</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>2023-04-23</t>
+          <t>2023-05-01</t>
         </is>
       </c>
     </row>
@@ -5303,17 +5303,17 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Letter: Mars mission to find sweet tooth of EM consumers</t>
+          <t>Back to life</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/040c8878-71b6-43ce-8041-43c53823a85f</t>
+          <t>https://www.ft.com/content/7870486b-c5b0-48d4-9a53-178569f96b10</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>2022-12-16</t>
+          <t>2023-04-23</t>
         </is>
       </c>
     </row>
@@ -6491,17 +6491,17 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Carl Icahn’s secret weapon in the US heartland</t>
+          <t>Consumer groups look for ways to revive growth as price rises ease</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/ca95453e-8e2a-403c-8edc-3b76448fae72</t>
+          <t>https://www.ft.com/content/29c1654c-0c9e-4c58-945d-106b0aa7d0da</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>2024-02-29</t>
+          <t>2024-03-03</t>
         </is>
       </c>
     </row>
@@ -6513,17 +6513,17 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Kraft Heinz reports first sales decline since 2021</t>
+          <t>Carl Icahn’s secret weapon in the US heartland</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/c6a23e4d-2964-48e1-9633-5302cbcf7df6</t>
+          <t>https://www.ft.com/content/ca95453e-8e2a-403c-8edc-3b76448fae72</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>2024-02-14</t>
+          <t>2024-02-29</t>
         </is>
       </c>
     </row>
@@ -6535,12 +6535,12 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Risers and fallers in the US</t>
+          <t>Kraft Heinz reports first sales decline since 2021</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/99d0e682-5b3a-4139-9ba2-5429942b7e65</t>
+          <t>https://www.ft.com/content/c6a23e4d-2964-48e1-9633-5302cbcf7df6</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -6557,12 +6557,12 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>What to watch in North America today</t>
+          <t>Risers and fallers in the US</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/5fa5474a-ecb3-49f9-9748-34e9070617c7</t>
+          <t>https://www.ft.com/content/99d0e682-5b3a-4139-9ba2-5429942b7e65</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -6579,12 +6579,12 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>FirstFT: Republican House lead narrows after Democrat special election win</t>
+          <t>What to watch in North America today</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/db6895dd-d174-46f9-82d3-508b1805d490</t>
+          <t>https://www.ft.com/content/5fa5474a-ecb3-49f9-9748-34e9070617c7</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -6601,17 +6601,17 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Biden hosts Jordan’s King Abdullah and UK holds by-elections</t>
+          <t>FirstFT: Republican House lead narrows after Democrat special election win</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/e2b5444e-8bf1-4858-99ce-a34e1817f046</t>
+          <t>https://www.ft.com/content/db6895dd-d174-46f9-82d3-508b1805d490</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>2024-02-11</t>
+          <t>2024-02-14</t>
         </is>
       </c>
     </row>
@@ -6623,17 +6623,17 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>A near-perfect inflation report</t>
+          <t>Biden hosts Jordan’s King Abdullah and UK holds by-elections</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/d7d75e8a-d66c-4544-9fd2-f443cf0237c6</t>
+          <t>https://www.ft.com/content/e2b5444e-8bf1-4858-99ce-a34e1817f046</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>2023-11-15</t>
+          <t>2024-02-11</t>
         </is>
       </c>
     </row>
@@ -6645,17 +6645,17 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>What to watch in North America today</t>
+          <t>A near-perfect inflation report</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/51d057ff-10d2-4c89-ab00-0b7db064291d</t>
+          <t>https://www.ft.com/content/d7d75e8a-d66c-4544-9fd2-f443cf0237c6</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>2023-11-01</t>
+          <t>2023-11-15</t>
         </is>
       </c>
     </row>
@@ -6667,12 +6667,12 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>FirstFT: Chinese scientists call for tighter AI controls</t>
+          <t>What to watch in North America today</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/4465bb88-6255-48f9-b056-9e73ba49c814</t>
+          <t>https://www.ft.com/content/51d057ff-10d2-4c89-ab00-0b7db064291d</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -6689,17 +6689,17 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Fed and BoE set interest rates and oil majors report</t>
+          <t>FirstFT: Chinese scientists call for tighter AI controls</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/f08c9ba5-7426-4143-91a4-79cd9624004e</t>
+          <t>https://www.ft.com/content/4465bb88-6255-48f9-b056-9e73ba49c814</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>2023-10-29</t>
+          <t>2023-11-01</t>
         </is>
       </c>
     </row>
@@ -6711,17 +6711,17 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>A scary, but noisy, inflation report</t>
+          <t>Fed and BoE set interest rates and oil majors report</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/bc64f0f1-5b06-406e-9d56-c1d5504b7c7d</t>
+          <t>https://www.ft.com/content/f08c9ba5-7426-4143-91a4-79cd9624004e</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>2023-10-13</t>
+          <t>2023-10-29</t>
         </is>
       </c>
     </row>
@@ -6733,17 +6733,17 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Bank stocks’ problem isn’t just rates</t>
+          <t>A scary, but noisy, inflation report</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/5533bfa5-7c26-43f5-8885-594181412f91</t>
+          <t>https://www.ft.com/content/bc64f0f1-5b06-406e-9d56-c1d5504b7c7d</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>2023-10-06</t>
+          <t>2023-10-13</t>
         </is>
       </c>
     </row>
@@ -6755,17 +6755,17 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Have consumer goods price rises peaked?</t>
+          <t>Bank stocks’ problem isn’t just rates</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/b92f4c2f-1320-41d9-9c56-a36e2ede4dda</t>
+          <t>https://www.ft.com/content/5533bfa5-7c26-43f5-8885-594181412f91</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2023-10-06</t>
         </is>
       </c>
     </row>
@@ -6777,17 +6777,17 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Higher prices dent Kraft Heinz sales growth</t>
+          <t>Have consumer goods price rises peaked?</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/9a652a1a-3e1f-4cd9-b25b-87e66a8f9ffd</t>
+          <t>https://www.ft.com/content/b92f4c2f-1320-41d9-9c56-a36e2ede4dda</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>2023-08-02</t>
+          <t>2023-08-23</t>
         </is>
       </c>
     </row>
@@ -6799,12 +6799,12 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>What to watch in North America today</t>
+          <t>Higher prices dent Kraft Heinz sales growth</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/1687ce7d-19ed-4628-80cb-d2f95a397b7c</t>
+          <t>https://www.ft.com/content/9a652a1a-3e1f-4cd9-b25b-87e66a8f9ffd</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -6821,12 +6821,12 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>FirstFT: Trump indicted for attempting to block 2020 election result</t>
+          <t>What to watch in North America today</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/cf4887aa-c48c-4d82-a317-ea3d8a3dc631</t>
+          <t>https://www.ft.com/content/1687ce7d-19ed-4628-80cb-d2f95a397b7c</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -6843,17 +6843,17 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Unilever starts search for new chair to replace Nils Andersen</t>
+          <t>FirstFT: Trump indicted for attempting to block 2020 election result</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/0a3b1285-f29c-4bd0-b0a0-6ff2fb43cc1e</t>
+          <t>https://www.ft.com/content/cf4887aa-c48c-4d82-a317-ea3d8a3dc631</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>2023-06-05</t>
+          <t>2023-08-02</t>
         </is>
       </c>
     </row>
@@ -6865,12 +6865,12 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Diageo’s new chief Debra Crew takes up role a month early</t>
+          <t>Unilever starts search for new chair to replace Nils Andersen</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/7cfee789-dad1-4ae8-8c68-d88db28489f7</t>
+          <t>https://www.ft.com/content/0a3b1285-f29c-4bd0-b0a0-6ff2fb43cc1e</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -6887,17 +6887,17 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Revolut hit by departures of CFO and UK banking chief</t>
+          <t>Diageo’s new chief Debra Crew takes up role a month early</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/f27f6b80-d32d-4913-991d-c512f6e909c7</t>
+          <t>https://www.ft.com/content/7cfee789-dad1-4ae8-8c68-d88db28489f7</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>2023-05-11</t>
+          <t>2023-06-05</t>
         </is>
       </c>
     </row>
@@ -6909,17 +6909,17 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Kraft Heinz lifts profit outlook as higher prices boost earnings</t>
+          <t>Revolut hit by departures of CFO and UK banking chief</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/d6937602-60c2-45d1-9d68-c05b4c7d7a13</t>
+          <t>https://www.ft.com/content/f27f6b80-d32d-4913-991d-c512f6e909c7</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>2023-05-03</t>
+          <t>2023-05-11</t>
         </is>
       </c>
     </row>
@@ -6931,17 +6931,17 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Tesco forecasts flat profits after inflation hits supply chain</t>
+          <t>Kraft Heinz lifts profit outlook as higher prices boost earnings</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/97aea230-b976-4743-9e1b-85c205fb1372</t>
+          <t>https://www.ft.com/content/d6937602-60c2-45d1-9d68-c05b4c7d7a13</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>2023-04-13</t>
+          <t>2023-05-03</t>
         </is>
       </c>
     </row>
@@ -7036,528 +7036,528 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>kroger</t>
+          <t>meta platforms</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>It’s much more than just a tech rally</t>
+          <t>Australia threatens action against Meta after Facebook news payments axed</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/4caf0af8-b18d-4415-a57e-a337c56d7064</t>
+          <t>https://www.ft.com/content/4ae8b51e-311b-4a6f-b569-107ca3650262</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>2024-02-27</t>
+          <t>2024-03-01</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>kroger</t>
+          <t>meta platforms</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Largest US supermarket deal caught in Biden antitrust crackdown</t>
+          <t>Universal Music impasse with TikTok threatens to take more tracks off platform</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/452f9c63-71a6-4fde-9c44-0fd87c246321</t>
+          <t>https://www.ft.com/content/0522ae2d-e23a-41cc-8083-b55b47aaddfa</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>2024-02-26</t>
+          <t>2024-02-28</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>kroger</t>
+          <t>meta platforms</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>FTC sues to block biggest supermarket merger in US history</t>
+          <t>AI boom sparks concern over Big Tech’s water consumption</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/31e3fb69-03f9-478a-9398-fce93934071d</t>
+          <t>https://www.ft.com/content/6544119e-a511-4cfa-9243-13b8cf855c13</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>2024-02-26</t>
+          <t>2024-02-25</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>kroger</t>
+          <t>meta platforms</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>ExxonMobil takes legal hammer to climate shareholder groups</t>
+          <t>Biggest tech companies pledge to fight AI-created election ‘deepfakes’</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/5b515165-057f-4351-9c3e-fd62f085d8e0</t>
+          <t>https://www.ft.com/content/8dcbc162-a0f5-47ce-a2ea-5fb25cb160c5</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>2024-02-07</t>
+          <t>2024-02-16</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>kroger</t>
+          <t>meta platforms</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Adam Neumann won’t go away</t>
+          <t>Are dividends back?</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/0c88ef3e-6b1e-48e6-9d45-6dbd9ee0ac1d</t>
+          <t>https://www.ft.com/content/1b2482fb-c117-4cda-ab03-73859a68fb97</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>2024-02-07</t>
+          <t>2024-02-13</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>kroger</t>
+          <t>meta platforms</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>What to watch in North America today</t>
+          <t>‘Enshittification’ is coming for absolutely everything</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/b6dddade-22d4-41ac-b2cc-2e219049edf6</t>
+          <t>https://www.ft.com/content/6fb1602d-a08b-4a8c-bac0-047b7d64aba5</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2024-02-08</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>kroger</t>
+          <t>meta platforms</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>The supermarkets’ next big product is your data</t>
+          <t>How the humble dividend might rise again</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/26959b97-90ad-4bc1-b9df-1b7461ba71f9</t>
+          <t>https://www.ft.com/content/fabb6df0-5652-44af-a40a-4783b43fd016</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>2023-09-11</t>
+          <t>2024-02-07</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>kroger</t>
+          <t>meta platforms</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>US grocer Kroger warns of weak sales in ‘tougher’ consumer environment</t>
+          <t>Big Tech boosts profits by $10bn with accounting change to server life estimate</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/70503939-9ce9-4c2f-bdb5-5b3171a15510</t>
+          <t>https://www.ft.com/content/ad2f407c-633a-431e-874b-44df53acc68a</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>2023-09-08</t>
+          <t>2024-02-05</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>kroger</t>
+          <t>meta platforms</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>What to watch in North America today</t>
+          <t>We need to act on online disinformation now</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/7685e64a-a32c-48cb-b46f-2f5427f4495a</t>
+          <t>https://www.ft.com/content/dc33fc6b-d6bc-42c2-b449-09d62dc878cb</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>2023-09-08</t>
+          <t>2024-02-05</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>kroger</t>
+          <t>meta platforms</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Directors’ starring role in Venice leads to triumph and travesty</t>
+          <t>Meta’s ad rebound may depend too much on China</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/f1740876-08c3-43d4-999d-fed729075524</t>
+          <t>https://www.ft.com/content/454ec355-a4b8-4270-b116-52d85d6a10bd</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2024-02-02</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>kroger</t>
+          <t>meta platforms</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Aldi heads down new aisle with US supermarket shopping spree</t>
+          <t>Meta shares leap 20% as investors cheer dividend and $50bn buyback</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/a5882d13-ae01-4758-9bad-7f942b9b870f</t>
+          <t>https://www.ft.com/content/6ff944b6-bae0-4253-85af-fcf9cd54987c</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>2023-09-03</t>
+          <t>2024-02-02</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>kroger</t>
+          <t>meta platforms</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>G20 and Asean summits set to go ahead without Xi</t>
+          <t>Meta value soars by $197bn as Big Tech stocks rally</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/a997b862-a835-4096-8db9-eb8a9dccf757</t>
+          <t>https://www.ft.com/content/335184c7-4fa4-47b1-9778-d8331eca31c1</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>2023-09-03</t>
+          <t>2024-02-02</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>kroger</t>
+          <t>meta platforms</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Rise of food waste technology | FT Food Revolution</t>
+          <t>How Meta got over Silicon Valley’s disdain for dividends</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>https://www.ft.com/video/78c92a3b-2346-4d66-a5cc-97c58e78e681</t>
+          <t>https://www.ft.com/content/80ca3bcd-e819-4002-90b3-3584239180aa</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>2023-08-01</t>
+          <t>2024-02-02</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>kroger</t>
+          <t>meta platforms</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Ocado and AutoStore settle three-year row over ecommerce tech</t>
+          <t>Meta’s Zuckerberg issues dramatic apology at Senate hearing on child safety</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/7038e2f4-0201-4632-a79e-8613890e8c99</t>
+          <t>https://www.ft.com/content/87840b12-08b5-4b90-9afc-bc8fba730ff9</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>2023-07-22</t>
+          <t>2024-01-31</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>kroger</t>
+          <t>meta platforms</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Agnelli-backed fund increases Ocado stake</t>
+          <t>Meta’s Mark Zuckerberg issues dramatic apology at Senate hearing on child safety</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/e9f2b5a3-8fc3-4987-9358-06bc47d60223</t>
+          <t>https://www.ft.com/content/601379f7-f1af-4187-a05d-7dc2cb27c4c9</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>2023-06-26</t>
+          <t>2024-01-31</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>kroger</t>
+          <t>meta platforms</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Ocado: Amazon bid rumours provide food for thought</t>
+          <t>Sheryl Sandberg to leave Meta’s board of directors</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/ec94ff8a-9ffc-477a-bc43-27b6d8fb4804</t>
+          <t>https://www.ft.com/content/270225f0-edb1-481f-ac31-696bfcdb1114</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>2023-06-22</t>
+          <t>2024-01-18</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>kroger</t>
+          <t>meta platforms</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Infant formula producers probed by FTC over bids for contracts</t>
+          <t>Meta staffer claims to be under investigation after alleging ‘censorship’ of pro-Palestinian views</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/13f389c6-38c3-4581-8ce1-b94dc07abd6b</t>
+          <t>https://www.ft.com/content/a4381d91-2fec-4422-b04b-75a06b643a05</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>2023-05-24</t>
+          <t>2024-01-09</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>kroger</t>
+          <t>meta platforms</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Dealmakers tackle rising rates with new pitch: take the debt with you</t>
+          <t>Meta faces accusations over content moderation in Israel-Hamas conflict</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/a9279ab6-d0f1-4385-a086-425c262a674e</t>
+          <t>https://www.ft.com/content/4916762d-db34-40e7-81d9-765576948868</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>2023-02-02</t>
+          <t>2023-12-19</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>kroger</t>
+          <t>meta platforms</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Further reading</t>
+          <t>Meta forced to apologise to Qatari billionaire over crypto scams</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/99743cdc-1168-49a9-9de8-27cc4d72cda0</t>
+          <t>https://www.ft.com/content/0999b1c4-5ee5-4bca-b306-51b5a82aae5e</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2023-12-15</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>kroger</t>
+          <t>meta platforms</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Kroger/Albertsons: US grocer bags rival to take on Amazon and Walmart</t>
+          <t>Meta’s platforms were ‘prime locations for predators’, lawsuit alleges</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/244460db-69ec-4f6f-b925-3e43374ec7eb</t>
+          <t>https://www.ft.com/content/69f9d6dc-9521-4cfb-b790-88d05cf21698</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>2022-10-14</t>
+          <t>2023-12-06</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>kroger</t>
+          <t>meta platforms</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Kroger creates US grocery giant with $24.6bn deal for Albertsons</t>
+          <t>TikTok and Meta challenge EU’s landmark digital rules</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/99cdbd23-8637-4c06-ac8c-4618196b817d</t>
+          <t>https://www.ft.com/content/24d4b40f-08fa-4568-ac55-a317b5ef8255</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>2022-10-14</t>
+          <t>2023-11-16</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>kroger</t>
+          <t>meta platforms</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Biggest US grocery chain Kroger in talks to buy rival Albertsons</t>
+          <t>Political adverts must disclose the use of AI, Meta says</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/8f3bef82-365e-4f7f-8a6a-936f27e268a9</t>
+          <t>https://www.ft.com/content/2af12eb2-6967-49fc-aecb-4f9cea3a8b08</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>2022-10-13</t>
+          <t>2023-11-08</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>kroger</t>
+          <t>meta platforms</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Biggest US grocery chain Kroger in talks to buy rival Albertsons</t>
+          <t>Mirror publisher Reach to cut 450 jobs after Meta pulls back from news</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/d44d8c49-701a-4c93-92d5-25a105e916d3</t>
+          <t>https://www.ft.com/content/b7736860-145d-4377-ad4b-a23b0d74e35b</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>2022-10-13</t>
+          <t>2023-11-08</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>kroger</t>
+          <t>meta platforms</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Kroger: private labels ring up retail gold</t>
+          <t>Meta: wave goodbye to the Year of Efficiency</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/9151cf0a-4db3-4f9a-aab4-00500243ff29</t>
+          <t>https://www.ft.com/content/90735c34-c6ab-4eb5-9190-4e49a5d36f79</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>2022-09-09</t>
+          <t>2023-10-25</t>
         </is>
       </c>
     </row>
@@ -7569,545 +7569,545 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Australia threatens action against Meta after Facebook news payments axed</t>
+          <t>AI will never threaten humans, says top Meta scientist</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/4ae8b51e-311b-4a6f-b569-107ca3650262</t>
+          <t>https://www.ft.com/content/30fa44a1-7623-499f-93b0-81e26e22f2a6</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2023-10-19</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>meta platforms</t>
+          <t>microsoft</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Universal Music impasse with TikTok threatens to take more tracks off platform</t>
+          <t>Elon Musk sues OpenAI and Sam Altman over multibillion-dollar alliance with Microsoft</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/0522ae2d-e23a-41cc-8083-b55b47aaddfa</t>
+          <t>https://www.ft.com/content/0c30fb22-1a71-4ce0-84fd-3cde3d36e2c9</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>2024-02-28</t>
+          <t>2024-03-01</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>meta platforms</t>
+          <t>microsoft</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>AI boom sparks concern over Big Tech’s water consumption</t>
+          <t>FirstFT: Elon Musk sues Sam Altman and OpenAI over Microsoft partnership</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/6544119e-a511-4cfa-9243-13b8cf855c13</t>
+          <t>https://www.ft.com/content/87f1fe3d-c283-4b9e-95c7-517611b2c2c5</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>2024-02-25</t>
+          <t>2024-03-01</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>meta platforms</t>
+          <t>microsoft</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Biggest tech companies pledge to fight AI-created election ‘deepfakes’</t>
+          <t>Musk sues OpenAI and Altman for breach of contract</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/8dcbc162-a0f5-47ce-a2ea-5fb25cb160c5</t>
+          <t>https://www.ft.com/content/6a4cfcd6-b39d-46bb-b40a-2ace23682996</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>2024-02-16</t>
+          <t>2024-03-01</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>meta platforms</t>
+          <t>microsoft</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Are dividends back?</t>
+          <t>Microsoft, OpenAI and Nvidia back $2.6bn robot start-up</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/1b2482fb-c117-4cda-ab03-73859a68fb97</t>
+          <t>https://www.ft.com/content/3f7e86e1-123a-4fba-af0a-680d955125c0</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>2024-02-13</t>
+          <t>2024-02-29</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>meta platforms</t>
+          <t>microsoft</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>‘Enshittification’ is coming for absolutely everything</t>
+          <t>Microsoft strikes deal with Mistral in push beyond OpenAI</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/6fb1602d-a08b-4a8c-bac0-047b7d64aba5</t>
+          <t>https://www.ft.com/content/9707b295-c245-41b2-b465-01a965697437</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>2024-02-08</t>
+          <t>2024-02-26</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>meta platforms</t>
+          <t>microsoft</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>How the humble dividend might rise again</t>
+          <t>Microsoft strikes deal with Mistral in push beyond OpenAI</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/fabb6df0-5652-44af-a40a-4783b43fd016</t>
+          <t>https://www.ft.com/content/cd6eb51a-3276-450f-87fd-97e8410db9eb</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>2024-02-07</t>
+          <t>2024-02-26</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>meta platforms</t>
+          <t>microsoft</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Big Tech boosts profits by $10bn with accounting change to server life estimate</t>
+          <t>Intel to manufacture chips for Microsoft as AI drives demand</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/ad2f407c-633a-431e-874b-44df53acc68a</t>
+          <t>https://www.ft.com/content/be22fa9d-d5ff-415d-b7d0-1b756751e344</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>2024-02-05</t>
+          <t>2024-02-21</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>meta platforms</t>
+          <t>microsoft</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>We need to act on online disinformation now</t>
+          <t>Microsoft looks beyond Xbox hardware for gaming growth</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/dc33fc6b-d6bc-42c2-b449-09d62dc878cb</t>
+          <t>https://www.ft.com/content/a58de260-c045-4f65-b0c2-a0f0b23307ef</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>2024-02-05</t>
+          <t>2024-02-15</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>meta platforms</t>
+          <t>microsoft</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Meta’s ad rebound may depend too much on China</t>
+          <t>Microsoft looks beyond Xbox hardware for gaming growth</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/454ec355-a4b8-4270-b116-52d85d6a10bd</t>
+          <t>https://www.ft.com/content/49edb589-77ab-4f93-b139-ff492f37f665</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>2024-02-02</t>
+          <t>2024-02-15</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>meta platforms</t>
+          <t>microsoft</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Meta shares leap 20% as investors cheer dividend and $50bn buyback</t>
+          <t>Microsoft and Meta help US stockpickers to best start to the year on record</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/6ff944b6-bae0-4253-85af-fcf9cd54987c</t>
+          <t>https://www.ft.com/content/59070cd4-1854-43e5-91b0-90389292563f</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>2024-02-02</t>
+          <t>2024-02-06</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>meta platforms</t>
+          <t>microsoft</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Meta value soars by $197bn as Big Tech stocks rally</t>
+          <t>Microsoft in deal with Semafor to create news stories with aid of AI chatbot</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/335184c7-4fa4-47b1-9778-d8331eca31c1</t>
+          <t>https://www.ft.com/content/b521a662-a272-49a1-b76e-3deea4754b76</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>2024-02-02</t>
+          <t>2024-02-05</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>meta platforms</t>
+          <t>microsoft</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>How Meta got over Silicon Valley’s disdain for dividends</t>
+          <t>Microsoft’s and Google’s AI plans clouded by concerns of rising costs</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/80ca3bcd-e819-4002-90b3-3584239180aa</t>
+          <t>https://www.ft.com/content/a062df1d-aaf5-4604-8f97-4444170482f2</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>2024-02-02</t>
+          <t>2024-01-31</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>meta platforms</t>
+          <t>microsoft</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Meta’s Zuckerberg issues dramatic apology at Senate hearing on child safety</t>
+          <t>Microsoft reports record quarterly revenue on strength in cloud division</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/87840b12-08b5-4b90-9afc-bc8fba730ff9</t>
+          <t>https://www.ft.com/content/902ace76-1c23-4f3e-9d5c-fc0e3c488fc8</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>2024-01-31</t>
+          <t>2024-01-30</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>meta platforms</t>
+          <t>microsoft</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Meta’s Mark Zuckerberg issues dramatic apology at Senate hearing on child safety</t>
+          <t>Microsoft reports record quarterly revenue on strength in cloud division</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/601379f7-f1af-4187-a05d-7dc2cb27c4c9</t>
+          <t>https://www.ft.com/content/5268e027-1a52-4a17-bd53-47540fe28e50</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>2024-01-31</t>
+          <t>2024-01-30</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>meta platforms</t>
+          <t>microsoft</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Sheryl Sandberg to leave Meta’s board of directors</t>
+          <t>Microsoft becomes second company to pass $3tn market capitalisation</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/270225f0-edb1-481f-ac31-696bfcdb1114</t>
+          <t>https://www.ft.com/content/c541534b-34ce-4782-9bdb-3048768ef212</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>2024-01-18</t>
+          <t>2024-01-24</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>meta platforms</t>
+          <t>microsoft</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Meta staffer claims to be under investigation after alleging ‘censorship’ of pro-Palestinian views</t>
+          <t>Records for Microsoft, Meta, Nvidia keep S&amp;P 500 on track for peak close</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/a4381d91-2fec-4422-b04b-75a06b643a05</t>
+          <t>https://www.ft.com/content/2c1eb9a2-009b-42ad-b4b2-28f8ced98082</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>2024-01-09</t>
+          <t>2024-01-24</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>meta platforms</t>
+          <t>microsoft</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Meta faces accusations over content moderation in Israel-Hamas conflict</t>
+          <t>Microsoft says Russian group infiltrated some employees’ email accounts</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/4916762d-db34-40e7-81d9-765576948868</t>
+          <t>https://www.ft.com/content/33a4b1d4-6036-4871-98c9-7d5ca822d7fc</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>2023-12-19</t>
+          <t>2024-01-19</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>meta platforms</t>
+          <t>microsoft</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Meta forced to apologise to Qatari billionaire over crypto scams</t>
+          <t>Microsoft says Russian group infiltrated some employees’ email accounts</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/0999b1c4-5ee5-4bca-b306-51b5a82aae5e</t>
+          <t>https://www.ft.com/content/d4639b30-80b0-4dc1-a1d5-50f854d60064</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>2023-12-15</t>
+          <t>2024-01-19</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>meta platforms</t>
+          <t>microsoft</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Meta’s platforms were ‘prime locations for predators’, lawsuit alleges</t>
+          <t>Microsoft overtakes Apple as world’s most valuable listed company</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/69f9d6dc-9521-4cfb-b790-88d05cf21698</t>
+          <t>https://www.ft.com/content/df78c0ec-fb7f-466a-b04c-7cc9a05fb063</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>2023-12-06</t>
+          <t>2024-01-11</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>meta platforms</t>
+          <t>microsoft</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>TikTok and Meta challenge EU’s landmark digital rules</t>
+          <t>Microsoft neck and neck with Apple in fight to be world’s most valuable company</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/24d4b40f-08fa-4568-ac55-a317b5ef8255</t>
+          <t>https://www.ft.com/content/37a96d73-c332-45f1-bd36-5feaa27d2277</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2024-01-11</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>meta platforms</t>
+          <t>microsoft</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Political adverts must disclose the use of AI, Meta says</t>
+          <t>Microsoft-OpenAI $13bn tie-up faces scrutiny from EU competition watchdog</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/2af12eb2-6967-49fc-aecb-4f9cea3a8b08</t>
+          <t>https://www.ft.com/content/d38a8def-9e98-4bcc-913f-7f3808e2866d</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>2023-11-08</t>
+          <t>2024-01-09</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>meta platforms</t>
+          <t>microsoft</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Mirror publisher Reach to cut 450 jobs after Meta pulls back from news</t>
+          <t>EU examines Microsoft’s ties to OpenAI</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/b7736860-145d-4377-ad4b-a23b0d74e35b</t>
+          <t>https://www.ft.com/content/27f641cd-eefd-4486-8005-d7e388f4a616</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>2023-11-08</t>
+          <t>2024-01-09</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>meta platforms</t>
+          <t>microsoft</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Meta: wave goodbye to the Year of Efficiency</t>
+          <t>Correction: Microsoft</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/90735c34-c6ab-4eb5-9190-4e49a5d36f79</t>
+          <t>https://www.ft.com/content/f367d730-3cd3-4365-8b49-9556aeb2bd68</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>2023-10-25</t>
+          <t>2024-01-08</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>meta platforms</t>
+          <t>microsoft</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>AI will never threaten humans, says top Meta scientist</t>
+          <t>UK watchdog examining Microsoft’s ties to OpenAI</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/30fa44a1-7623-499f-93b0-81e26e22f2a6</t>
+          <t>https://www.ft.com/content/15a6b13a-aeb8-4b0d-b9b8-98f5fb6d3937</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>2023-10-19</t>
+          <t>2023-12-08</t>
         </is>
       </c>
     </row>
@@ -8119,545 +8119,545 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Elon Musk sues OpenAI and Sam Altman over multibillion-dollar alliance with Microsoft</t>
+          <t>OpenAI/Microsoft: non-profit’s mission is at odds with its biggest investor</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/0c30fb22-1a71-4ce0-84fd-3cde3d36e2c9</t>
+          <t>https://www.ft.com/content/9c35f31f-ab31-412e-b9c8-7f0a83c38ce1</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2023-11-21</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>microsoft</t>
+          <t>petrobras</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>FirstFT: Elon Musk sues Sam Altman and OpenAI over Microsoft partnership</t>
+          <t>The forces pushing back against the green transition</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/87f1fe3d-c283-4b9e-95c7-517611b2c2c5</t>
+          <t>https://www.ft.com/content/de8fcdc9-929a-4bc3-ac23-b14d193ce0f4</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-02-09</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>microsoft</t>
+          <t>petrobras</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Musk sues OpenAI and Altman for breach of contract</t>
+          <t>World Bank ‘optimistic’ about giant African hydro project</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/6a4cfcd6-b39d-46bb-b40a-2ace23682996</t>
+          <t>https://www.ft.com/content/17d5142a-8835-4b42-841a-7e8eb0db3b45</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-02-08</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>microsoft</t>
+          <t>petrobras</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Microsoft, OpenAI and Nvidia back $2.6bn robot start-up</t>
+          <t>Petrobras plans $100bn in spending to persist through ‘fade-out of oil’</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/3f7e86e1-123a-4fba-af0a-680d955125c0</t>
+          <t>https://www.ft.com/content/73de1470-3e52-49b8-b1b1-1157191569db</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>2024-02-29</t>
+          <t>2024-02-07</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>microsoft</t>
+          <t>petrobras</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Microsoft strikes deal with Mistral in push beyond OpenAI</t>
+          <t>FirstFT: Joe Biden blames Donald Trump for sinking his Ukraine bill</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/9707b295-c245-41b2-b465-01a965697437</t>
+          <t>https://www.ft.com/content/e1ffa6bc-34c1-47ae-8746-7ded2bc0085f</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>2024-02-26</t>
+          <t>2024-02-07</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>microsoft</t>
+          <t>petrobras</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Microsoft strikes deal with Mistral in push beyond OpenAI</t>
+          <t>Brazil’s supreme court orders probe of anti-corruption group</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/cd6eb51a-3276-450f-87fd-97e8410db9eb</t>
+          <t>https://www.ft.com/content/98c31e95-051c-4f53-a674-d1df463d6fdd</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>2024-02-26</t>
+          <t>2024-02-05</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>microsoft</t>
+          <t>petrobras</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>AI boom sparks concern over Big Tech’s water consumption</t>
+          <t>Brazil’s imports of Russian oil products soar</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/6544119e-a511-4cfa-9243-13b8cf855c13</t>
+          <t>https://www.ft.com/content/7ebb679e-099e-49ac-a750-73ca46538dee</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>2024-02-25</t>
+          <t>2024-01-30</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>microsoft</t>
+          <t>petrobras</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Intel to manufacture chips for Microsoft as AI drives demand</t>
+          <t>Hopes rise of a break in Brazil’s IPO drought</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/be22fa9d-d5ff-415d-b7d0-1b756751e344</t>
+          <t>https://www.ft.com/content/5787e31b-8d5f-4c70-9014-5e9cc2ac45f6</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>2024-02-21</t>
+          <t>2024-01-30</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>microsoft</t>
+          <t>petrobras</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Microsoft looks beyond Xbox hardware for gaming growth</t>
+          <t>How Brazil’s ‘car wash’ anti-corruption crusader fell from grace</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/a58de260-c045-4f65-b0c2-a0f0b23307ef</t>
+          <t>https://www.ft.com/content/212b85b1-53d8-47ce-9c38-6de740dc4aef</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>2024-02-15</t>
+          <t>2024-01-29</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>microsoft</t>
+          <t>petrobras</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Microsoft looks beyond Xbox hardware for gaming growth</t>
+          <t>Lula’s playbook: Brazil bets on a return to state capitalism</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/49edb589-77ab-4f93-b139-ff492f37f665</t>
+          <t>https://www.ft.com/content/5c9d5735-639e-47c0-9eb6-a1fae26096e8</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>2024-02-15</t>
+          <t>2024-01-16</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>microsoft</t>
+          <t>petrobras</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Microsoft and Meta help US stockpickers to best start to the year on record</t>
+          <t>Brazil environment minister demands ‘ceiling’ on oil production</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/59070cd4-1854-43e5-91b0-90389292563f</t>
+          <t>https://www.ft.com/content/0a1745ef-39f2-45ad-a5ef-d89b96d039db</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>2024-02-06</t>
+          <t>2023-12-26</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>microsoft</t>
+          <t>petrobras</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Microsoft in deal with Semafor to create news stories with aid of AI chatbot</t>
+          <t>Brazil’s focus on farms and forests to cut emissions risks setback from oil</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/b521a662-a272-49a1-b76e-3deea4754b76</t>
+          <t>https://www.ft.com/content/a6b5c4ab-d8ae-44a2-bd67-b57419a5ed79</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>2024-02-05</t>
+          <t>2023-11-30</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>microsoft</t>
+          <t>petrobras</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Microsoft’s and Google’s AI plans clouded by concerns of rising costs</t>
+          <t>Petrobras aims to transform Brazil into global energy power</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/a062df1d-aaf5-4604-8f97-4444170482f2</t>
+          <t>https://www.ft.com/content/76a1ccb0-8534-4513-8fb5-5eb5e07773bd</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>2024-01-31</t>
+          <t>2023-11-19</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>microsoft</t>
+          <t>petrobras</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Microsoft reports record quarterly revenue on strength in cloud division</t>
+          <t>Global dividends hit by oil and mining sector cuts</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/5268e027-1a52-4a17-bd53-47540fe28e50</t>
+          <t>https://www.ft.com/content/11739074-7ac8-433e-a31f-5c5247457ee9</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>2024-01-30</t>
+          <t>2023-11-16</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>microsoft</t>
+          <t>petrobras</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Microsoft reports record quarterly revenue on strength in cloud division</t>
+          <t>Oil still looks like an easier bet for Latin America than renewables</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/902ace76-1c23-4f3e-9d5c-fc0e3c488fc8</t>
+          <t>https://www.ft.com/content/afa423aa-9e28-4f4e-a9eb-f029df0a95a2</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>2024-01-30</t>
+          <t>2023-11-14</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>microsoft</t>
+          <t>petrobras</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Microsoft becomes second company to pass $3tn market capitalisation</t>
+          <t>Brazil minister says oil and green ambitions are not contradictory</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/c541534b-34ce-4782-9bdb-3048768ef212</t>
+          <t>https://www.ft.com/content/f13aef43-ca58-49d6-b825-891e54670910</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>2024-01-24</t>
+          <t>2023-09-27</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>microsoft</t>
+          <t>petrobras</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Records for Microsoft, Meta, Nvidia keep S&amp;P 500 on track for peak close</t>
+          <t>Fight for Brazil chemicals group Braskem draws in foreign bidders — and Lula government</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/2c1eb9a2-009b-42ad-b4b2-28f8ced98082</t>
+          <t>https://www.ft.com/content/bbdfa92a-8c62-48b5-922d-3d77bb1ff51b</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>2024-01-24</t>
+          <t>2023-08-18</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>microsoft</t>
+          <t>petrobras</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Microsoft says Russian group infiltrated some employees’ email accounts</t>
+          <t>Petrobras CEO says not keeping oil reserves up would be ‘fatal error’</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/33a4b1d4-6036-4871-98c9-7d5ca822d7fc</t>
+          <t>https://www.ft.com/content/958773d5-c11f-47db-85c0-a7f78a2b1af7</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>2024-01-19</t>
+          <t>2023-06-21</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>microsoft</t>
+          <t>petrobras</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Microsoft says Russian group infiltrated some employees’ email accounts</t>
+          <t>Brazil divided over oil drilling proposal off Amazon delta</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/d4639b30-80b0-4dc1-a1d5-50f854d60064</t>
+          <t>https://www.ft.com/content/800693a0-fc52-408e-83bd-0b8e63f38b3a</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>2024-01-19</t>
+          <t>2023-06-08</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>microsoft</t>
+          <t>petrobras</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Microsoft overtakes Apple as world’s most valuable listed company</t>
+          <t>Petrobras announces end of market-based fuel pricing policy</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/df78c0ec-fb7f-466a-b04c-7cc9a05fb063</t>
+          <t>https://www.ft.com/content/908fa1a4-e695-41e6-913d-49bae7604f92</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>2024-01-11</t>
+          <t>2023-05-16</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>microsoft</t>
+          <t>petrobras</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Microsoft neck and neck with Apple in fight to be world’s most valuable company</t>
+          <t>Petrobras announces end of market-based fuel pricing policy</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/37a96d73-c332-45f1-bd36-5feaa27d2277</t>
+          <t>https://www.ft.com/content/55bff1d3-3250-4466-9c98-6ab267d5b19c</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>2024-01-11</t>
+          <t>2023-05-16</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>microsoft</t>
+          <t>petrobras</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Microsoft-OpenAI $13bn tie-up faces scrutiny from EU competition watchdog</t>
+          <t>Lula picks political ally as next Petrobras chief</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/d38a8def-9e98-4bcc-913f-7f3808e2866d</t>
+          <t>https://www.ft.com/content/c336df4a-d810-44f4-b5a6-eab88ae76b87</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>2024-01-09</t>
+          <t>2022-12-30</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>microsoft</t>
+          <t>petrobras</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>EU examines Microsoft’s ties to OpenAI</t>
+          <t>Petrobras defends decarbonisation strategy as political pressure rises</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/27f641cd-eefd-4486-8005-d7e388f4a616</t>
+          <t>https://www.ft.com/content/3b0f9feb-80c2-4a4d-889e-35126a582a19</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>2024-01-09</t>
+          <t>2022-12-15</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>microsoft</t>
+          <t>petrobras</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Correction: Microsoft</t>
+          <t>Petrobras CEO to leave as Lula prepares to take office in Brazil</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/f367d730-3cd3-4365-8b49-9556aeb2bd68</t>
+          <t>https://www.ft.com/content/a9d7b5d3-a90e-4295-8ac0-c5764ccf4aac</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
+          <t>2022-12-06</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>microsoft</t>
+          <t>petrobras</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>UK watchdog examining Microsoft’s ties to OpenAI</t>
+          <t>Petrobras CEO to leave as Lula prepares to take office in Brazil</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/15a6b13a-aeb8-4b0d-b9b8-98f5fb6d3937</t>
+          <t>https://www.ft.com/content/a5ddeb40-07ad-4f10-87fe-2fc8a4890813</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>2023-12-08</t>
+          <t>2022-12-06</t>
         </is>
       </c>
     </row>
@@ -8669,545 +8669,545 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>The forces pushing back against the green transition</t>
+          <t>Petrobras: fears of price fixing look overdone</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/de8fcdc9-929a-4bc3-ac23-b14d193ce0f4</t>
+          <t>https://www.ft.com/content/134e9200-a838-485c-b6c4-8fd4866618ec</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>2024-02-09</t>
+          <t>2022-11-02</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>petrobras</t>
+          <t>pfizer</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>World Bank ‘optimistic’ about giant African hydro project</t>
+          <t>Haleon shares rise 8% as it lifts sales forecast</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/17d5142a-8835-4b42-841a-7e8eb0db3b45</t>
+          <t>https://www.ft.com/content/864d3d3e-06db-4e1e-a1e7-2f7f7a1e7803</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>2024-02-08</t>
+          <t>2024-02-29</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>petrobras</t>
+          <t>pfizer</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Petrobras plans $100bn in spending to persist through ‘fade-out of oil’</t>
+          <t>GSK beats earnings expectations on blockbuster RSV jab</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/73de1470-3e52-49b8-b1b1-1157191569db</t>
+          <t>https://www.ft.com/content/ea42ac8a-323d-4553-a8ce-a1f0ede0eb82</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>2024-02-07</t>
+          <t>2024-01-31</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>petrobras</t>
+          <t>pfizer</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>FirstFT: Joe Biden blames Donald Trump for sinking his Ukraine bill</t>
+          <t>Pfizer reports a steep drop in sales due to weak demand for Covid-19 drugs</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/e1ffa6bc-34c1-47ae-8746-7ded2bc0085f</t>
+          <t>https://www.ft.com/content/53277a0b-44d6-43d8-b884-195630813298</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>2024-02-07</t>
+          <t>2024-01-30</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>petrobras</t>
+          <t>pfizer</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Brazil’s supreme court orders probe of anti-corruption group</t>
+          <t>What to watch in North America</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/98c31e95-051c-4f53-a674-d1df463d6fdd</t>
+          <t>https://www.ft.com/content/df4b204a-0d5c-4019-98ea-a6eba660ef57</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>2024-02-05</t>
+          <t>2024-01-30</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>petrobras</t>
+          <t>pfizer</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Brazil’s imports of Russian oil products soar</t>
+          <t>GSK’s new RSV jab set to achieve blockbuster status</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/7ebb679e-099e-49ac-a750-73ca46538dee</t>
+          <t>https://www.ft.com/content/c8f907b7-c263-4345-9cc5-f951a6a93088</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>2024-01-30</t>
+          <t>2024-01-29</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>petrobras</t>
+          <t>pfizer</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Hopes rise of a break in Brazil’s IPO drought</t>
+          <t>Haleon sells ChapStick lip balm brand for $430mn</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/5787e31b-8d5f-4c70-9014-5e9cc2ac45f6</t>
+          <t>https://www.ft.com/content/3a27551b-dbae-414f-8281-ea00147b3591</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>2024-01-30</t>
+          <t>2024-01-25</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>petrobras</t>
+          <t>pfizer</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>How Brazil’s ‘car wash’ anti-corruption crusader fell from grace</t>
+          <t>Competent jerks have a shelf life in the office</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/212b85b1-53d8-47ce-9c38-6de740dc4aef</t>
+          <t>https://www.ft.com/content/812878c5-1fc0-4510-adb7-1d837bdc2e97</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>2024-01-29</t>
+          <t>2024-01-14</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>petrobras</t>
+          <t>pfizer</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Lula’s playbook: Brazil bets on a return to state capitalism</t>
+          <t>BioNTech revenue to fall short of expectations</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/5c9d5735-639e-47c0-9eb6-a1fae26096e8</t>
+          <t>https://www.ft.com/content/af2d684b-34fb-483b-940f-d5148614bdf6</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>2024-01-16</t>
+          <t>2024-01-09</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>petrobras</t>
+          <t>pfizer</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Brazil environment minister demands ‘ceiling’ on oil production</t>
+          <t>Expired Pfizer Covid antiviral drugs set to cost Europe $2.2bn, data shows</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/0a1745ef-39f2-45ad-a5ef-d89b96d039db</t>
+          <t>https://www.ft.com/content/7ddd24bb-2394-4a63-96f0-464a3ccf6df6</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>2023-12-26</t>
+          <t>2024-01-01</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>petrobras</t>
+          <t>pfizer</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Brazil’s focus on farms and forests to cut emissions risks setback from oil</t>
+          <t>New Covid variant gains ground in US ahead of holiday season</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/a6b5c4ab-d8ae-44a2-bd67-b57419a5ed79</t>
+          <t>https://www.ft.com/content/7d4b3629-3d0c-45bc-8aa8-eb88ab9b4ce9</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2023-12-24</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>petrobras</t>
+          <t>pfizer</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Petrobras aims to transform Brazil into global energy power</t>
+          <t>Pfizer shares fall on weaker than expected 2024 revenue forecast</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/76a1ccb0-8534-4513-8fb5-5eb5e07773bd</t>
+          <t>https://www.ft.com/content/96d9a152-a894-4d77-9930-2b327864f0c8</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>2023-11-19</t>
+          <t>2023-12-13</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>petrobras</t>
+          <t>pfizer</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Global dividends hit by oil and mining sector cuts</t>
+          <t>Pfizer: pharma group needs weight loss drug to secure post-Covid future</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/11739074-7ac8-433e-a31f-5c5247457ee9</t>
+          <t>https://www.ft.com/content/e04f0534-a471-4ae9-a765-9c288f230399</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-12-13</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>petrobras</t>
+          <t>pfizer</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Oil still looks like an easier bet for Latin America than renewables</t>
+          <t>Pfizer shares tumble on weak forecast for 2024 revenues</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/afa423aa-9e28-4f4e-a9eb-f029df0a95a2</t>
+          <t>https://www.ft.com/content/c2a53290-2e20-41e0-a4d4-c269d96f6a29</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>2023-11-14</t>
+          <t>2023-12-13</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>petrobras</t>
+          <t>pfizer</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Brazil minister says oil and green ambitions are not contradictory</t>
+          <t>Risers and fallers in the US</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/f13aef43-ca58-49d6-b825-891e54670910</t>
+          <t>https://www.ft.com/content/4698029c-8cc1-4612-a2ab-98f67c347fd5</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2023-12-13</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>petrobras</t>
+          <t>pfizer</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Fight for Brazil chemicals group Braskem draws in foreign bidders — and Lula government</t>
+          <t>Pfizer shares fall 4.3% on obesity pill setback</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/bbdfa92a-8c62-48b5-922d-3d77bb1ff51b</t>
+          <t>https://www.ft.com/content/ecec9ae5-695e-430a-89fb-997a74838528</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>2023-08-18</t>
+          <t>2023-12-01</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>petrobras</t>
+          <t>pfizer</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Petrobras CEO says not keeping oil reserves up would be ‘fatal error’</t>
+          <t>Pfizer drops plan for twice-daily obesity pill due to side effects</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/958773d5-c11f-47db-85c0-a7f78a2b1af7</t>
+          <t>https://www.ft.com/content/510f64c0-75d6-4d69-b59a-a8d196a29a7e</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>2023-06-21</t>
+          <t>2023-12-01</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>petrobras</t>
+          <t>pfizer</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Brazil divided over oil drilling proposal off Amazon delta</t>
+          <t>Pfizer swings to a loss due to Covid-19 antiviral and vaccine write-off</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/800693a0-fc52-408e-83bd-0b8e63f38b3a</t>
+          <t>https://www.ft.com/content/9afa5e4b-8bbb-41bd-a189-cbb1b421bf98</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>2023-06-08</t>
+          <t>2023-10-31</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>petrobras</t>
+          <t>pfizer</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Petrobras announces end of market-based fuel pricing policy</t>
+          <t>BioNTech writes down €900mn on Covid-19 vaccines</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/908fa1a4-e695-41e6-913d-49bae7604f92</t>
+          <t>https://www.ft.com/content/777c63f9-807a-412b-93b4-8ec164a8e77f</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>2023-05-16</t>
+          <t>2023-10-16</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>petrobras</t>
+          <t>pfizer</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Petrobras announces end of market-based fuel pricing policy</t>
+          <t>Pfizer cuts full-year outlook due to weak demand for Covid-19 drugs</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/55bff1d3-3250-4466-9c98-6ab267d5b19c</t>
+          <t>https://www.ft.com/content/64141c6b-bfc2-4f47-9636-ae6254ecfadb</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>2023-05-16</t>
+          <t>2023-10-13</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>petrobras</t>
+          <t>pfizer</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Lula picks political ally as next Petrobras chief</t>
+          <t>Covid vaccine winners suffer reversal of fortune</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/c336df4a-d810-44f4-b5a6-eab88ae76b87</t>
+          <t>https://www.ft.com/content/efeabfcf-4810-4d50-9442-212ab39f3a4a</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-10-03</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>petrobras</t>
+          <t>pfizer</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Petrobras defends decarbonisation strategy as political pressure rises</t>
+          <t>FDA approves new Covid-19 boosters from Pfizer and Moderna</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/3b0f9feb-80c2-4a4d-889e-35126a582a19</t>
+          <t>https://www.ft.com/content/7d395b36-74c7-471f-a244-1ba896871b3c</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>2022-12-15</t>
+          <t>2023-09-11</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>petrobras</t>
+          <t>pfizer</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Petrobras CEO to leave as Lula prepares to take office in Brazil</t>
+          <t>Pfizer revenues halve as demand for Covid products drops</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/a9d7b5d3-a90e-4295-8ac0-c5764ccf4aac</t>
+          <t>https://www.ft.com/content/2b9a0587-90cc-40f3-91d0-13267ed9e6ec</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>2022-12-06</t>
+          <t>2023-08-01</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>petrobras</t>
+          <t>pfizer</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Petrobras CEO to leave as Lula prepares to take office in Brazil</t>
+          <t>Former Pfizer employee charged in US insider-trading sweep</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/a5ddeb40-07ad-4f10-87fe-2fc8a4890813</t>
+          <t>https://www.ft.com/content/34f78951-df2c-4c24-a810-c25e4df0bb78</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>2022-12-06</t>
+          <t>2023-06-29</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>petrobras</t>
+          <t>pfizer</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Petrobras: fears of price fixing look overdone</t>
+          <t>Ex-Pfizer employee charged with insider trading over Covid treatment</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/134e9200-a838-485c-b6c4-8fd4866618ec</t>
+          <t>https://www.ft.com/content/59c22631-b8c8-4423-9d65-a2ee5b6003ec</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2023-06-29</t>
         </is>
       </c>
     </row>
@@ -9219,545 +9219,545 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Haleon shares rise 8% as it lifts sales forecast</t>
+          <t>Pfizer sinks 5% after halting development of experimental obesity pill</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/864d3d3e-06db-4e1e-a1e7-2f7f7a1e7803</t>
+          <t>https://www.ft.com/content/32a18e13-b891-4821-8e63-8ae9d836ef5b</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>2024-02-29</t>
+          <t>2023-06-26</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>pfizer</t>
+          <t>regeneron</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>UK start-up raises $14mn to develop AI-boosted adaptable vaccines</t>
+          <t>New biotech aims to alleviate suffering caused by skin diseases</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/b2a6fdad-7dc7-414c-a63b-26705af788bc</t>
+          <t>https://www.ft.com/content/a076888e-f6af-4a1b-8244-11a13daab778</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>2024-02-26</t>
+          <t>2024-02-12</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>pfizer</t>
+          <t>regeneron</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>GSK beats earnings expectations on blockbuster RSV jab</t>
+          <t>What to watch in North America today</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/ea42ac8a-323d-4553-a8ce-a1f0ede0eb82</t>
+          <t>https://www.ft.com/content/65613d67-14ec-436a-a34f-6a4ca29b1f04</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>2024-01-31</t>
+          <t>2024-02-02</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>pfizer</t>
+          <t>regeneron</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Pfizer reports a steep drop in sales due to weak demand for Covid-19 drugs</t>
+          <t>FirstFT: Meta rewards investors with first dividend and $50bn buyback</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/53277a0b-44d6-43d8-b884-195630813298</t>
+          <t>https://www.ft.com/content/490ecef0-5b54-4a39-94dd-8be8ffee7a00</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>2024-01-30</t>
+          <t>2024-02-02</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>pfizer</t>
+          <t>regeneron</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>What to watch in North America</t>
+          <t>French prosecutors examine claims of market manipulation against Sanofi</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/df4b204a-0d5c-4019-98ea-a6eba660ef57</t>
+          <t>https://www.ft.com/content/11460824-9ba4-445f-9b54-c44467f269b2</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>2024-01-30</t>
+          <t>2023-11-07</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>pfizer</t>
+          <t>regeneron</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>GSK’s new RSV jab set to achieve blockbuster status</t>
+          <t>Griffin and Schmidt invest $10mn each in UK genetics database</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/c8f907b7-c263-4345-9cc5-f951a6a93088</t>
+          <t>https://www.ft.com/content/20badecd-0e25-4526-8b8e-6870a566163e</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>2024-01-29</t>
+          <t>2023-10-29</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>pfizer</t>
+          <t>regeneron</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Haleon sells ChapStick lip balm brand for $430mn</t>
+          <t>Sanofi shares fall 19% after cut to profit outlook</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/3a27551b-dbae-414f-8281-ea00147b3591</t>
+          <t>https://www.ft.com/content/6f12dad4-dc09-4bb5-b1c7-941eb2408bac</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>2024-01-25</t>
+          <t>2023-10-27</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>pfizer</t>
+          <t>regeneron</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Competent jerks have a shelf life in the office</t>
+          <t>The stock market turns cautious</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/812878c5-1fc0-4510-adb7-1d837bdc2e97</t>
+          <t>https://www.ft.com/content/19a5561c-91be-4c80-bcb8-c6cb2ee33518</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>2024-01-14</t>
+          <t>2023-10-03</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>pfizer</t>
+          <t>regeneron</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>BioNTech revenue to fall short of expectations</t>
+          <t>Risers and fallers in the US</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/af2d684b-34fb-483b-940f-d5148614bdf6</t>
+          <t>https://www.ft.com/content/ced4ab5e-1433-4ced-b86e-2c746afdbb43</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>2024-01-09</t>
+          <t>2023-06-27</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>pfizer</t>
+          <t>regeneron</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Expired Pfizer Covid antiviral drugs set to cost Europe $2.2bn, data shows</t>
+          <t>Risers and fallers in the US</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/7ddd24bb-2394-4a63-96f0-464a3ccf6df6</t>
+          <t>https://www.ft.com/content/3318cbc5-a197-4689-a780-ccb1035ae61c</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>2024-01-01</t>
+          <t>2023-06-27</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>pfizer</t>
+          <t>regeneron</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>New Covid variant gains ground in US ahead of holiday season</t>
+          <t>Boehringer Ingelheim enters obesity drug race</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/7d4b3629-3d0c-45bc-8aa8-eb88ab9b4ce9</t>
+          <t>https://www.ft.com/content/d3f5e936-05af-4775-8247-cff1c007ba45</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>2023-12-24</t>
+          <t>2023-06-23</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>pfizer</t>
+          <t>regeneron</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Pfizer shares fall on weaker than expected 2024 revenue forecast</t>
+          <t>VistaJet: get rich or fly trying</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/96d9a152-a894-4d77-9930-2b327864f0c8</t>
+          <t>https://www.ft.com/content/8597b7e7-f4ef-4bb9-91d4-2664e9ffab03</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>2023-12-13</t>
+          <t>2023-05-18</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>pfizer</t>
+          <t>regeneron</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Pfizer: pharma group needs weight loss drug to secure post-Covid future</t>
+          <t>Regeneron boss backs attempt to block $28bn Amgen acquisition</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/e04f0534-a471-4ae9-a765-9c288f230399</t>
+          <t>https://www.ft.com/content/074d099e-798c-4f1a-9bfe-c5d336300db1</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>2023-12-13</t>
+          <t>2023-05-17</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>pfizer</t>
+          <t>regeneron</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Pfizer shares tumble on weak forecast for 2024 revenues</t>
+          <t>UK partnerships with life sciences groups threatened by NHS pressures</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/c2a53290-2e20-41e0-a4d4-c269d96f6a29</t>
+          <t>https://www.ft.com/content/b2cf3d20-c708-45da-bc10-a2aa0a86fef3</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>2023-12-13</t>
+          <t>2023-05-01</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>pfizer</t>
+          <t>regeneron</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Risers and fallers in the US</t>
+          <t>Big Pharma fights patent disclosure demand from investors</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/4698029c-8cc1-4612-a2ab-98f67c347fd5</t>
+          <t>https://www.ft.com/content/c5498e67-a48f-4adc-b85f-7bf1a0d400f6</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>2023-12-13</t>
+          <t>2023-02-26</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>pfizer</t>
+          <t>regeneron</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Pfizer shares fall 4.3% on obesity pill setback</t>
+          <t>Race is on to develop new generation of weight-loss drugs</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/ecec9ae5-695e-430a-89fb-997a74838528</t>
+          <t>https://www.ft.com/content/8054d902-1be8-4580-b527-67af455aa4d3</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>2023-12-01</t>
+          <t>2022-12-28</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>pfizer</t>
+          <t>regeneron</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Pfizer drops plan for twice-daily obesity pill due to side effects</t>
+          <t>‘No big company is coming to the city’: biotech developer bemoans New York’s status</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/510f64c0-75d6-4d69-b59a-a8d196a29a7e</t>
+          <t>https://www.ft.com/content/0b37f8a9-abac-4a44-aefe-199769d5f256</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>2023-12-01</t>
+          <t>2022-07-07</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>pfizer</t>
+          <t>regeneron</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Pfizer swings to a loss due to Covid-19 antiviral and vaccine write-off</t>
+          <t>BioNTech/pancreatic cancer: mRNA jabs may tame a savage disease</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/9afa5e4b-8bbb-41bd-a189-cbb1b421bf98</t>
+          <t>https://www.ft.com/content/5caa2228-e4f5-49b3-8136-a89ed5655b5b</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>2023-10-31</t>
+          <t>2022-06-08</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>pfizer</t>
+          <t>regeneron</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>BioNTech writes down €900mn on Covid-19 vaccines</t>
+          <t>What to watch in the Americas today</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/777c63f9-807a-412b-93b4-8ec164a8e77f</t>
+          <t>https://www.ft.com/content/3c919a15-7cb7-40e8-82ac-7db6e66f18d4</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>2023-10-16</t>
+          <t>2022-05-04</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>pfizer</t>
+          <t>regeneron</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Pfizer cuts full-year outlook due to weak demand for Covid-19 drugs</t>
+          <t>US drugs watchdog pulls authorisation for Covid monoclonal antibodies</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/64141c6b-bfc2-4f47-9636-ae6254ecfadb</t>
+          <t>https://www.ft.com/content/20396e83-3c32-474f-8a5a-63270214a226</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>2023-10-13</t>
+          <t>2022-01-25</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>pfizer</t>
+          <t>regeneron</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>FDA approves new Covid-19 boosters from Pfizer and Moderna</t>
+          <t>Early Regeneron tests indicate antibody treatment could be less effective against Omicron</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/7d395b36-74c7-471f-a244-1ba896871b3c</t>
+          <t>https://www.ft.com/content/f7b6b3d2-5ff9-48fe-af6a-8ab8b763871e</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>2023-09-11</t>
+          <t>2021-11-30</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>pfizer</t>
+          <t>regeneron</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Pfizer revenues halve as demand for Covid products drops</t>
+          <t>Early tests show Regeneron drug may be less effective against Omicron</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/2b9a0587-90cc-40f3-91d0-13267ed9e6ec</t>
+          <t>https://www.ft.com/content/63d40964-3443-416a-841a-f47445038145</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>2023-08-01</t>
+          <t>2021-11-30</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>pfizer</t>
+          <t>regeneron</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Former Pfizer employee charged in US insider-trading sweep</t>
+          <t>Trial shows Regeneron antibody treatment protects against Covid infection for up to 8 months</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/34f78951-df2c-4c24-a810-c25e4df0bb78</t>
+          <t>https://www.ft.com/content/c6b7cd32-bb6a-41f6-8129-8bd83a048b74</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>2023-06-29</t>
+          <t>2021-11-08</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>pfizer</t>
+          <t>regeneron</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Ex-Pfizer employee charged with insider trading over Covid treatment</t>
+          <t>Polarisation clouds the role for Regeneron’s Covid treatment</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/59c22631-b8c8-4423-9d65-a2ee5b6003ec</t>
+          <t>https://www.ft.com/content/dc376eaf-bdfe-486d-9a00-d3162b73ad87</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>2023-06-29</t>
+          <t>2021-10-22</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>pfizer</t>
+          <t>regeneron</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Pfizer sinks 5% after halting development of experimental obesity pill</t>
+          <t>Regeneron claims Covid antibody drugs might have saved Colin Powell</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/32a18e13-b891-4821-8e63-8ae9d836ef5b</t>
+          <t>https://www.ft.com/content/a65136a1-90c5-4488-a63b-f8d50fd20e2d</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>2023-06-26</t>
+          <t>2021-10-19</t>
         </is>
       </c>
     </row>
@@ -9769,545 +9769,545 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>New biotech aims to alleviate suffering caused by skin diseases</t>
+          <t>US government buys additional doses of Regeneron’s Covid treatment</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/a076888e-f6af-4a1b-8244-11a13daab778</t>
+          <t>https://www.ft.com/content/470b857f-2bba-4ca9-804f-f336f1e43540</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>2024-02-12</t>
+          <t>2021-09-14</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>regeneron</t>
+          <t>shell</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>What to watch in North America today</t>
+          <t>In America, there is finally good news on the anti-money laundering front</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/65613d67-14ec-436a-a34f-6a4ca29b1f04</t>
+          <t>https://www.ft.com/content/131ba949-57b4-452d-84fc-2657689e3f10</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>2024-02-02</t>
+          <t>2024-02-27</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>regeneron</t>
+          <t>shell</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>FirstFT: Meta rewards investors with first dividend and $50bn buyback</t>
+          <t>European capitals seek $1.5bn in fallback plan to arm Ukraine</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/490ecef0-5b54-4a39-94dd-8be8ffee7a00</t>
+          <t>https://www.ft.com/content/428fdef6-57e8-4aeb-b7f6-9845fcc045f9</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>2024-02-02</t>
+          <t>2024-02-23</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>regeneron</t>
+          <t>shell</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>French prosecutors examine claims of market manipulation against Sanofi</t>
+          <t>LNG demand to surge 50% by 2040 in clean-fuel transition, forecasts Shell</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/11460824-9ba4-445f-9b54-c44467f269b2</t>
+          <t>https://www.ft.com/content/e3d2ad34-0a3a-4db8-84d7-bb1efaa97cf8</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>2023-11-07</t>
+          <t>2024-02-14</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>regeneron</t>
+          <t>shell</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Griffin and Schmidt invest $10mn each in UK genetics database</t>
+          <t>It is too cheap and easy to set up UK companies</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/20badecd-0e25-4526-8b8e-6870a566163e</t>
+          <t>https://www.ft.com/content/beed28a3-f08f-4d6c-bf5d-b3122d862a4a</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>2023-10-29</t>
+          <t>2024-02-12</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>regeneron</t>
+          <t>shell</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Sanofi shares fall 19% after cut to profit outlook</t>
+          <t>Big European fund sells €2.8bn in oil holdings because of slow moves on climate</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/6f12dad4-dc09-4bb5-b1c7-941eb2408bac</t>
+          <t>https://www.ft.com/content/b47ef3da-6156-4907-ad83-96bfe6baa49b</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>2023-10-27</t>
+          <t>2024-02-08</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>regeneron</t>
+          <t>shell</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>The stock market turns cautious</t>
+          <t>Biden decision will ‘erode confidence’ in LNG industry, Shell CEO says</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/19a5561c-91be-4c80-bcb8-c6cb2ee33518</t>
+          <t>https://www.ft.com/content/e562e79b-74c1-4835-adcb-c35d6cefd119</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>2023-10-03</t>
+          <t>2024-02-04</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>regeneron</t>
+          <t>shell</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Risers and fallers in the US</t>
+          <t>Shell raises dividend as earnings beat analysts’ forecasts</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/ced4ab5e-1433-4ced-b86e-2c746afdbb43</t>
+          <t>https://www.ft.com/content/84bab71b-5acb-4925-8962-624c0db541fe</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>2023-06-27</t>
+          <t>2024-02-01</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>regeneron</t>
+          <t>shell</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Risers and fallers in the US</t>
+          <t>Shell raises dividend after second-highest cash flow in its history</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/3318cbc5-a197-4689-a780-ccb1035ae61c</t>
+          <t>https://www.ft.com/content/6318b455-499c-4b1e-97a1-aa60e48c8e7a</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>2023-06-27</t>
+          <t>2024-02-01</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>regeneron</t>
+          <t>shell</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Boehringer Ingelheim enters obesity drug race</t>
+          <t>FTAV’s further reading</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/d3f5e936-05af-4775-8247-cff1c007ba45</t>
+          <t>https://www.ft.com/content/09268f02-2f6b-4bb5-b40c-f326ae612642</t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>2023-06-23</t>
+          <t>2024-01-31</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>regeneron</t>
+          <t>shell</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>VistaJet: get rich or fly trying</t>
+          <t>ING faces threat of legal action from climate group behind Shell case</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/8597b7e7-f4ef-4bb9-91d4-2664e9ffab03</t>
+          <t>https://www.ft.com/content/669b3d0a-11fd-41e3-b813-fb6cf4425089</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>2023-05-18</t>
+          <t>2024-01-19</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>regeneron</t>
+          <t>shell</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Regeneron boss backs attempt to block $28bn Amgen acquisition</t>
+          <t>Shell agrees to dispose of Nigerian business for $1.3bn after 68 years</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/074d099e-798c-4f1a-9bfe-c5d336300db1</t>
+          <t>https://www.ft.com/content/a12f8dee-fae3-48ea-87b8-c91529d9f1b7</t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>2023-05-17</t>
+          <t>2024-01-16</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>regeneron</t>
+          <t>shell</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>UK partnerships with life sciences groups threatened by NHS pressures</t>
+          <t>Shell under fire from Europe’s largest asset manager over climate policy</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/b2cf3d20-c708-45da-bc10-a2aa0a86fef3</t>
+          <t>https://www.ft.com/content/8e530a5c-6f67-424a-a9d9-a14d395ee4c1</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>2023-05-01</t>
+          <t>2024-01-15</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>regeneron</t>
+          <t>shell</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Big Pharma fights patent disclosure demand from investors</t>
+          <t>Why Shell’s downstream weakness bodes ill for the global economy</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/c5498e67-a48f-4adc-b85f-7bf1a0d400f6</t>
+          <t>https://www.ft.com/content/a5a4a9d0-61e8-482e-8f98-094d3705fce1</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>2023-02-26</t>
+          <t>2024-01-08</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>regeneron</t>
+          <t>shell</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Race is on to develop new generation of weight-loss drugs</t>
+          <t>South Korean islanders shelter after Pyongyang launches artillery shells</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/8054d902-1be8-4580-b527-67af455aa4d3</t>
+          <t>https://www.ft.com/content/918cb47b-cdc0-4bc5-87ef-83d66b2b21ed</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>2022-12-28</t>
+          <t>2024-01-05</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>regeneron</t>
+          <t>shell</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>‘No big company is coming to the city’: biotech developer bemoans New York’s status</t>
+          <t>Shell sells stake in Rosneft-owned refinery to Prax as it cuts Russia links</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/0b37f8a9-abac-4a44-aefe-199769d5f256</t>
+          <t>https://www.ft.com/content/1b74d969-a1fa-4566-adbf-0703568ac5d7</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>2022-07-07</t>
+          <t>2023-12-15</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>regeneron</t>
+          <t>shell</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>BioNTech/pancreatic cancer: mRNA jabs may tame a savage disease</t>
+          <t>US bypasses Congress to approve sale of tank shells to Israel</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/5caa2228-e4f5-49b3-8136-a89ed5655b5b</t>
+          <t>https://www.ft.com/content/e7780881-8cde-4262-8a27-50433cc18114</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>2022-06-08</t>
+          <t>2023-12-09</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>regeneron</t>
+          <t>shell</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>What to watch in the Americas today</t>
+          <t>US gas upstart hits back at BP and Shell in export dispute</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/3c919a15-7cb7-40e8-82ac-7db6e66f18d4</t>
+          <t>https://www.ft.com/content/0837dbef-5b59-444c-a36d-08956e59d204</t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>2022-05-04</t>
+          <t>2023-12-05</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>regeneron</t>
+          <t>shell</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>US drugs watchdog pulls authorisation for Covid monoclonal antibodies</t>
+          <t>Oil majors call on Washington and Brussels to intervene in LNG dispute</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/20396e83-3c32-474f-8a5a-63270214a226</t>
+          <t>https://www.ft.com/content/90891fb9-9bb9-4777-8b10-5e071514ea09</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2023-11-11</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>regeneron</t>
+          <t>shell</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Early Regeneron tests indicate antibody treatment could be less effective against Omicron</t>
+          <t>Shell taps gamers and influencers to boost image among the young</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/f7b6b3d2-5ff9-48fe-af6a-8ab8b763871e</t>
+          <t>https://www.ft.com/content/28e054d6-7169-4182-87a3-188a22c73cd6</t>
         </is>
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>2021-11-30</t>
+          <t>2023-11-10</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>regeneron</t>
+          <t>shell</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Early tests show Regeneron drug may be less effective against Omicron</t>
+          <t>Shell sues Greenpeace for $2.1mn in one of largest claims against group</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/63d40964-3443-416a-841a-f47445038145</t>
+          <t>https://www.ft.com/content/3041e388-f1a5-4bee-a756-fa58e8fd639c</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>2021-11-30</t>
+          <t>2023-11-09</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>regeneron</t>
+          <t>shell</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Trial shows Regeneron antibody treatment protects against Covid infection for up to 8 months</t>
+          <t>Shell boss backs ‘leaner’ operation in defending renewables strategy shift</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/c6b7cd32-bb6a-41f6-8129-8bd83a048b74</t>
+          <t>https://www.ft.com/content/37f2f393-4542-43b3-971d-75fe1acbfd97</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>2021-11-08</t>
+          <t>2023-11-05</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>regeneron</t>
+          <t>shell</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Polarisation clouds the role for Regeneron’s Covid treatment</t>
+          <t>Shell increases share buybacks as robust prices drive profits</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/dc376eaf-bdfe-486d-9a00-d3162b73ad87</t>
+          <t>https://www.ft.com/content/36c530a2-07e1-4f8f-a8d3-255867603d16</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>2021-10-22</t>
+          <t>2023-11-02</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>regeneron</t>
+          <t>shell</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Regeneron claims Covid antibody drugs might have saved Colin Powell</t>
+          <t>Shell boss to focus on shareholder returns as he shuns megadeals</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/a65136a1-90c5-4488-a63b-f8d50fd20e2d</t>
+          <t>https://www.ft.com/content/33d85337-9ea5-4303-a9ce-7278770d5c0a</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>2021-10-19</t>
+          <t>2023-11-02</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>regeneron</t>
+          <t>shell</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>US government buys additional doses of Regeneron’s Covid treatment</t>
+          <t>Why Rimowa decided to go shell for leather</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/470b857f-2bba-4ca9-804f-f336f1e43540</t>
+          <t>https://www.ft.com/content/087a8b66-5e28-4f41-9588-9093d57b5ec4</t>
         </is>
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>2021-09-14</t>
+          <t>2023-10-28</t>
         </is>
       </c>
     </row>
@@ -10319,545 +10319,545 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>In America, there is finally good news on the anti-money laundering front</t>
+          <t>Israeli army shells southern Lebanon in response to rockets</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/131ba949-57b4-452d-84fc-2657689e3f10</t>
+          <t>https://www.ft.com/content/f347bd36-da1e-4e85-b549-ebf6ea5061a0</t>
         </is>
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>2024-02-27</t>
+          <t>2023-10-10</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>shell</t>
+          <t>target</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>European capitals seek $1.5bn in fallback plan to arm Ukraine</t>
+          <t>US High School Economics class: US inflation eases to 2.4%, according to Federal Reserve’s target index</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/428fdef6-57e8-4aeb-b7f6-9845fcc045f9</t>
+          <t>https://www.ft.com/content/5103e31d-4b3a-4c6a-8df0-7145997e5456</t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>2024-02-23</t>
+          <t>2024-03-04</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>shell</t>
+          <t>target</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>LNG demand to surge 50% by 2040 in clean-fuel transition, forecasts Shell</t>
+          <t>Church of England urged to target £1bn for legacy of slavery fund</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/e3d2ad34-0a3a-4db8-84d7-bb1efaa97cf8</t>
+          <t>https://www.ft.com/content/49757f0e-bd48-4c1d-9294-273dc343e148</t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>2024-02-14</t>
+          <t>2024-03-04</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>shell</t>
+          <t>target</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>It is too cheap and easy to set up UK companies</t>
+          <t>Reddit targets valuation as high as $6.5bn in IPO</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/beed28a3-f08f-4d6c-bf5d-b3122d862a4a</t>
+          <t>https://www.ft.com/content/3a6cf6d5-77bf-4918-b7a5-b04db9b02b95</t>
         </is>
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>2024-02-12</t>
+          <t>2024-03-01</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>shell</t>
+          <t>target</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Big European fund sells €2.8bn in oil holdings because of slow moves on climate</t>
+          <t>Why bitcoin’s price could still tumble</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/b47ef3da-6156-4907-ad83-96bfe6baa49b</t>
+          <t>https://www.ft.com/content/434cde20-820c-4001-83d0-c7ea802cc45c</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>2024-02-08</t>
+          <t>2024-03-01</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>shell</t>
+          <t>target</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Biden decision will ‘erode confidence’ in LNG industry, Shell CEO says</t>
+          <t>China’s economy suffers blow as factory activity slows</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/e562e79b-74c1-4835-adcb-c35d6cefd119</t>
+          <t>https://www.ft.com/content/abac9965-0414-4537-8e29-2b49fdf12593</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>2024-02-04</t>
+          <t>2024-03-01</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>shell</t>
+          <t>target</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Shell raises dividend as earnings beat analysts’ forecasts</t>
+          <t>Uber chief unlocks $136mn in options after beating $120bn valuation target</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/84bab71b-5acb-4925-8962-624c0db541fe</t>
+          <t>https://www.ft.com/content/6a59da30-a7c7-4b65-a9af-b1195262ad33</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>2024-02-01</t>
+          <t>2024-02-29</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>shell</t>
+          <t>target</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Shell raises dividend after second-highest cash flow in its history</t>
+          <t>US inflation eases to 2.4%, according to Federal Reserve’s target index</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/6318b455-499c-4b1e-97a1-aa60e48c8e7a</t>
+          <t>https://www.ft.com/content/e9a3dd8f-574a-45fb-b60f-12fd1ac5cd93</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>2024-02-01</t>
+          <t>2024-02-29</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>shell</t>
+          <t>target</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>FTAV’s further reading</t>
+          <t>Israel launches strikes on Hizbollah targets in north-east Lebanon</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/09268f02-2f6b-4bb5-b40c-f326ae612642</t>
+          <t>https://www.ft.com/content/be34e8be-5f80-4ca9-9c73-84ea23dbf146</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>2024-01-31</t>
+          <t>2024-02-26</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>shell</t>
+          <t>target</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>ING faces threat of legal action from climate group behind Shell case</t>
+          <t>Repsol to boost dividends ahead of target</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/669b3d0a-11fd-41e3-b813-fb6cf4425089</t>
+          <t>https://www.ft.com/content/e993a470-05c8-4a80-b401-515238d20b27</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>2024-01-19</t>
+          <t>2024-02-22</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>shell</t>
+          <t>target</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Shell agrees to dispose of Nigerian business for $1.3bn after 68 years</t>
+          <t>Letter: Da Vinci is wrong target for climate protest ire</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/a12f8dee-fae3-48ea-87b8-c91529d9f1b7</t>
+          <t>https://www.ft.com/content/c7344622-f031-44a7-866f-cd97336ec748</t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>2024-01-16</t>
+          <t>2024-02-21</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>shell</t>
+          <t>target</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Shell under fire from Europe’s largest asset manager over climate policy</t>
+          <t>US tax agency targets executives’ personal use of corporate jets</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/8e530a5c-6f67-424a-a9d9-a14d395ee4c1</t>
+          <t>https://www.ft.com/content/ebaec6cb-ba79-47c9-8e02-b34caf5afecf</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>2024-01-15</t>
+          <t>2024-02-21</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>shell</t>
+          <t>target</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Why Shell’s downstream weakness bodes ill for the global economy</t>
+          <t>US tax agency targets executives’ personal use of corporate jets</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/a5a4a9d0-61e8-482e-8f98-094d3705fce1</t>
+          <t>https://www.ft.com/content/e80a58fa-03d1-4b86-afce-4dbd4cb159d9</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
+          <t>2024-02-21</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>shell</t>
+          <t>target</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>South Korean islanders shelter after Pyongyang launches artillery shells</t>
+          <t>Monzo targets £3.6bn valuation in fresh funding round</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/918cb47b-cdc0-4bc5-87ef-83d66b2b21ed</t>
+          <t>https://www.ft.com/content/14907794-28dc-475f-89b3-7550686d3bf1</t>
         </is>
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>2024-02-20</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>shell</t>
+          <t>target</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Shell sells stake in Rosneft-owned refinery to Prax as it cuts Russia links</t>
+          <t>The crypto lobby’s newest target</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/1b74d969-a1fa-4566-adbf-0703568ac5d7</t>
+          <t>https://www.ft.com/content/10c2525f-76ac-4859-9119-750a1997b6bf</t>
         </is>
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>2023-12-15</t>
+          <t>2024-02-16</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>shell</t>
+          <t>target</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>US bypasses Congress to approve sale of tank shells to Israel</t>
+          <t>Visual analysis: Gaza’s last refuge becomes Israel’s next target</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/e7780881-8cde-4262-8a27-50433cc18114</t>
+          <t>https://www.ft.com/content/6265f18b-3fba-4110-9b9f-300638e48d4c</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>2023-12-09</t>
+          <t>2024-02-08</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>shell</t>
+          <t>target</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>US gas upstart hits back at BP and Shell in export dispute</t>
+          <t>TotalEnergies raises dividend target for 2024</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/0837dbef-5b59-444c-a36d-08956e59d204</t>
+          <t>https://www.ft.com/content/24fd56bc-1fc4-458a-9d5e-4dc8752cb1c3</t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>2023-12-05</t>
+          <t>2024-02-07</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>shell</t>
+          <t>target</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Oil majors call on Washington and Brussels to intervene in LNG dispute</t>
+          <t>A game of chicken: Labour vs private equity over taxes</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/90891fb9-9bb9-4777-8b10-5e071514ea09</t>
+          <t>https://www.ft.com/content/2ef7fa2d-6848-48c6-8a66-8806be870f81</t>
         </is>
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>2023-11-11</t>
+          <t>2024-02-06</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>shell</t>
+          <t>target</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Shell taps gamers and influencers to boost image among the young</t>
+          <t>Turkey still must shake off its inflation addiction</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/28e054d6-7169-4182-87a3-188a22c73cd6</t>
+          <t>https://www.ft.com/content/eddac0e6-1c02-45f9-a6c7-deeface7f6ff</t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>2023-11-10</t>
+          <t>2024-02-05</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>shell</t>
+          <t>target</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Shell sues Greenpeace for $2.1mn in one of largest claims against group</t>
+          <t>Austrian campaigners target Roman Abramovich’s secret Alpine villa</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/3041e388-f1a5-4bee-a756-fa58e8fd639c</t>
+          <t>https://www.ft.com/content/6b4fc83d-7851-4027-99ae-11919364e356</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>2023-11-09</t>
+          <t>2024-02-03</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>shell</t>
+          <t>target</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Shell boss backs ‘leaner’ operation in defending renewables strategy shift</t>
+          <t>Activist shareholders target Samsung to unlock value</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/37f2f393-4542-43b3-971d-75fe1acbfd97</t>
+          <t>https://www.ft.com/content/9a9072a6-5abd-4e4f-a71f-1a531d2a60c0</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>2023-11-05</t>
+          <t>2024-02-02</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>shell</t>
+          <t>target</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Shell increases share buybacks as robust prices drive profits</t>
+          <t>BNP Paribas shares fall after downgrade to profit target</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/36c530a2-07e1-4f8f-a8d3-255867603d16</t>
+          <t>https://www.ft.com/content/3b7d1f61-65c2-4a02-97e2-1b916b13d08c</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>2023-11-02</t>
+          <t>2024-02-01</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>shell</t>
+          <t>target</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Shell boss to focus on shareholder returns as he shuns megadeals</t>
+          <t>BNP Paribas pushes back profitability target</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/33d85337-9ea5-4303-a9ce-7278770d5c0a</t>
+          <t>https://www.ft.com/content/40979f34-853d-4332-95e8-d8d4381b1110</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>2023-11-02</t>
+          <t>2024-02-01</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>shell</t>
+          <t>target</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Why Rimowa decided to go shell for leather</t>
+          <t>Japanese equities down after missed inflation target</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/087a8b66-5e28-4f41-9588-9093d57b5ec4</t>
+          <t>https://www.ft.com/content/f6a6479d-ea26-4c3a-9f94-e10894d37b94</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>2023-10-28</t>
+          <t>2024-01-26</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>shell</t>
+          <t>target</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Israeli army shells southern Lebanon in response to rockets</t>
+          <t>US strikes target Houthi anti-ship missiles</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/f347bd36-da1e-4e85-b549-ebf6ea5061a0</t>
+          <t>https://www.ft.com/content/77a18ee8-60aa-4d78-9f45-9764d42b6824</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>2023-10-10</t>
+          <t>2024-01-18</t>
         </is>
       </c>
     </row>
@@ -10869,545 +10869,545 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Reddit targets valuation as high as $6.5bn in IPO</t>
+          <t>US strikes target Houthi anti-ship missiles</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/3a6cf6d5-77bf-4918-b7a5-b04db9b02b95</t>
+          <t>https://www.ft.com/content/3755b30f-9a04-4e08-ac8a-32583f4067e7</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-01-18</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>unicredit</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Why bitcoin’s price could still tumble</t>
+          <t>Daniel Křetínský drops plans to buy Atos unit</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/434cde20-820c-4001-83d0-c7ea802cc45c</t>
+          <t>https://www.ft.com/content/280b51da-ff65-4fcd-80a4-1f64167c9001</t>
         </is>
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-02-28</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>unicredit</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>China’s economy suffers blow as factory activity slows</t>
+          <t>Santander returns record profits to investors in bid to boost shares</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/abac9965-0414-4537-8e29-2b49fdf12593</t>
+          <t>https://www.ft.com/content/293262a0-e77d-42dc-b14f-1ca3ea6411e9</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-02-19</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>unicredit</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Uber chief unlocks $136mn in options after beating $120bn valuation target</t>
+          <t>The comeback for Italian banks doesn’t (yet) herald new deals</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/6a59da30-a7c7-4b65-a9af-b1195262ad33</t>
+          <t>https://www.ft.com/content/19df3d54-5e54-4a53-9bdc-1263cd28f3f5</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>2024-02-29</t>
+          <t>2024-02-08</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>unicredit</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>US inflation eases to 2.4%, according to Federal Reserve’s target index</t>
+          <t>Monte dei Paschi to pay its first dividend in 13 years</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/e9a3dd8f-574a-45fb-b60f-12fd1ac5cd93</t>
+          <t>https://www.ft.com/content/cb1a691b-f9ca-48da-a4ec-2d2803e7e458</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>2024-02-29</t>
+          <t>2024-02-07</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>unicredit</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Israel launches strikes on Hizbollah targets in north-east Lebanon</t>
+          <t>UniCredit profits beat expectations</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/be34e8be-5f80-4ca9-9c73-84ea23dbf146</t>
+          <t>https://www.ft.com/content/9b19710d-61ed-4a83-bbae-219b4e9f7e32</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>2024-02-26</t>
+          <t>2024-02-05</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>unicredit</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Trade tensions dog WTO as ministers meet in Abu Dhabi</t>
+          <t>UniCredit to return €8.6bn to shareholders</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/789c4cf1-c750-4391-9a2e-a456fb9adc3f</t>
+          <t>https://www.ft.com/content/8221616a-69a2-4c4f-9b0a-022dd06f2af1</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>2024-02-26</t>
+          <t>2024-02-05</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>unicredit</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Repsol to boost dividends ahead of target</t>
+          <t>Risers and fallers in Europe</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/e993a470-05c8-4a80-b401-515238d20b27</t>
+          <t>https://www.ft.com/content/f11851a3-2a45-4a35-bff2-f6176003dbd7</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>2024-02-22</t>
+          <t>2024-02-05</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>unicredit</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Nato chief says Ukraine has right to strike Russian targets ‘outside Ukraine’</t>
+          <t>UniCredit removed from list of global systemically important banks</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/578c2abe-daa0-454e-ac2e-d4b09789c312</t>
+          <t>https://www.ft.com/content/05d5a97d-0b50-4cf3-896c-0b4344e64467</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>2024-02-22</t>
+          <t>2023-11-27</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>unicredit</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>US tax agency targets executives’ personal use of corporate jets</t>
+          <t>Italian banks: remedy to MPS’s ills was Lovaglio, actually</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/e80a58fa-03d1-4b86-afce-4dbd4cb159d9</t>
+          <t>https://www.ft.com/content/3972212a-79a8-4aa9-91c1-393deb84fa8d</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>2024-02-21</t>
+          <t>2023-11-21</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>unicredit</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>US tax agency targets executives’ personal use of corporate jets</t>
+          <t>Comparisons are odious for London’s stock market</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/ebaec6cb-ba79-47c9-8e02-b34caf5afecf</t>
+          <t>https://www.ft.com/content/9be715ca-85ab-46a1-911e-5ffeb13bbc73</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>2024-02-21</t>
+          <t>2023-10-27</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>unicredit</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Letter: Da Vinci is wrong target for climate protest ire</t>
+          <t>UniCredit/Barclays: investors discount boom as bad omen</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/c7344622-f031-44a7-866f-cd97336ec748</t>
+          <t>https://www.ft.com/content/91697b58-1b8b-4f14-a62c-66c1b6c8857d</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>2024-02-21</t>
+          <t>2023-10-24</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>unicredit</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Monzo targets £3.6bn valuation in fresh funding round</t>
+          <t>UniCredit plans €6.5bn of shareholder distribution after higher rates boost earnings</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/14907794-28dc-475f-89b3-7550686d3bf1</t>
+          <t>https://www.ft.com/content/757fb100-6e36-49f5-aede-46ebde705e64</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>2024-02-20</t>
+          <t>2023-10-24</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>unicredit</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>The crypto lobby’s newest target</t>
+          <t>UniCredit to set aside €1.1bn to avoid paying one-off windfall tax</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/10c2525f-76ac-4859-9119-750a1997b6bf</t>
+          <t>https://www.ft.com/content/ffa8eb80-8335-4e1f-b228-d728666951e3</t>
         </is>
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>2024-02-16</t>
+          <t>2023-10-24</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>unicredit</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Visual analysis: Gaza’s last refuge becomes Israel’s next target</t>
+          <t>Why Chevron is inking the biggest deal in its history</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/6265f18b-3fba-4110-9b9f-300638e48d4c</t>
+          <t>https://www.ft.com/content/1478498e-8e70-44c5-87a5-5b56896f9452</t>
         </is>
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>2024-02-08</t>
+          <t>2023-10-24</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>unicredit</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>TotalEnergies raises dividend target for 2024</t>
+          <t>UniCredit strikes first deal of Andrea Orcel era with Greek tie-up</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/24fd56bc-1fc4-458a-9d5e-4dc8752cb1c3</t>
+          <t>https://www.ft.com/content/4e8f520e-f49f-48ef-964b-7f01347a7ed7</t>
         </is>
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>2024-02-07</t>
+          <t>2023-10-23</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>unicredit</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>A game of chicken: Labour vs private equity over taxes</t>
+          <t>What to watch in Europe today</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/2ef7fa2d-6848-48c6-8a66-8806be870f81</t>
+          <t>https://www.ft.com/content/07ebd555-07b8-447e-bdcc-536b51958d4f</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>2024-02-06</t>
+          <t>2023-10-23</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>unicredit</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Turkey still must shake off its inflation addiction</t>
+          <t>Saving Atos: Jean-Pierre Mustier handed one of France’s messiest rescue missions</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/eddac0e6-1c02-45f9-a6c7-deeface7f6ff</t>
+          <t>https://www.ft.com/content/f89768b9-a3e1-47c5-a5f2-0af4886db691</t>
         </is>
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>2024-02-05</t>
+          <t>2023-10-22</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>unicredit</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Austrian campaigners target Roman Abramovich’s secret Alpine villa</t>
+          <t>IT services group Atos appoints Mustier as chair</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/6b4fc83d-7851-4027-99ae-11919364e356</t>
+          <t>https://www.ft.com/content/fa114860-2951-47ea-acad-00ac077f0dd8</t>
         </is>
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>2024-02-03</t>
+          <t>2023-10-16</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>unicredit</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Activist shareholders target Samsung to unlock value</t>
+          <t>UniCredit increases profit guidance on record first half results</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/9a9072a6-5abd-4e4f-a71f-1a531d2a60c0</t>
+          <t>https://www.ft.com/content/20f419da-eaa7-4df4-b057-807595023201</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>2024-02-02</t>
+          <t>2023-07-26</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>unicredit</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>BNP Paribas shares fall after downgrade to profit target</t>
+          <t>UniCredit raises 2023 profit guidance after record quarter</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/3b7d1f61-65c2-4a02-97e2-1b916b13d08c</t>
+          <t>https://www.ft.com/content/7a93d10a-2fec-4841-9c2b-b406f2573bf6</t>
         </is>
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>2024-02-01</t>
+          <t>2023-05-03</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>unicredit</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>BNP Paribas pushes back profitability target</t>
+          <t>UniCredit’s Orcel plays down talk of BPM deal as profits hit a record</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/40979f34-853d-4332-95e8-d8d4381b1110</t>
+          <t>https://www.ft.com/content/dae3d5a1-3fbf-4db2-bb86-e886d230ce0b</t>
         </is>
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>2024-02-01</t>
+          <t>2023-05-03</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>unicredit</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Japanese equities down after missed inflation target</t>
+          <t>UniCredit/BPM: a tempting morsel for another day</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/f6a6479d-ea26-4c3a-9f94-e10894d37b94</t>
+          <t>https://www.ft.com/content/d0ad5283-b68c-471a-8ab9-5f4ccee590d3</t>
         </is>
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>2024-01-26</t>
+          <t>2023-04-19</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>unicredit</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>US strikes target Houthi anti-ship missiles</t>
+          <t>UniCredit shareholders back chief executive Andrea Orcel’s 30% pay rise</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/77a18ee8-60aa-4d78-9f45-9764d42b6824</t>
+          <t>https://www.ft.com/content/9d9f9be3-5481-467b-946b-ca583cd41b86</t>
         </is>
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>2024-01-18</t>
+          <t>2023-03-31</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>unicredit</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>US strikes target Houthi anti-ship missiles</t>
+          <t>UniCredit shareholders back CEO Orcel’s pay package</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/3755b30f-9a04-4e08-ac8a-32583f4067e7</t>
+          <t>https://www.ft.com/content/6db56bbb-4dd6-4ffc-a201-e804a89bcaf2</t>
         </is>
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>2024-01-18</t>
+          <t>2023-03-31</t>
         </is>
       </c>
     </row>
@@ -11419,545 +11419,545 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Daniel Křetínský drops plans to buy Atos unit</t>
+          <t>Letter: UniCredit piece contained ‘several fundamental flaws’</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/280b51da-ff65-4fcd-80a4-1f64167c9001</t>
+          <t>https://www.ft.com/content/dbf43092-283a-4989-8b55-581583544d53</t>
         </is>
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>2024-02-28</t>
+          <t>2023-03-17</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>unicredit</t>
+          <t>vertex</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>European banks promise €120bn of shareholder returns on interest rate gains</t>
+          <t>Singapore, Hong Kong Spac failures highlight thwarted ambitions</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/04205127-40c7-42bc-b988-1094ce8ddb25</t>
+          <t>https://www.ft.com/content/e5f03221-4d8f-4cc7-b36a-c3dacfe5949d</t>
         </is>
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>2024-02-26</t>
+          <t>2024-02-20</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>unicredit</t>
+          <t>vertex</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>Santander returns record profits to investors in bid to boost shares</t>
+          <t>Pakistan elections, peak earnings season and lunar new year</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/293262a0-e77d-42dc-b14f-1ca3ea6411e9</t>
+          <t>https://www.ft.com/content/fb779bcd-fbde-40b9-9f50-71bac80d9e0a</t>
         </is>
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>2024-02-19</t>
+          <t>2024-02-04</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>unicredit</t>
+          <t>vertex</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>The comeback for Italian banks doesn’t (yet) herald new deals</t>
+          <t>Risers and fallers in the US</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/19df3d54-5e54-4a53-9bdc-1263cd28f3f5</t>
+          <t>https://www.ft.com/content/4698029c-8cc1-4612-a2ab-98f67c347fd5</t>
         </is>
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>2024-02-08</t>
+          <t>2023-12-13</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>unicredit</t>
+          <t>vertex</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Monte dei Paschi to pay its first dividend in 13 years</t>
+          <t>US drug regulator approves Crispr gene editing therapy</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/cb1a691b-f9ca-48da-a4ec-2d2803e7e458</t>
+          <t>https://www.ft.com/content/8db7fcaa-eac6-43fa-8f46-6875a703fc14</t>
         </is>
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>2024-02-07</t>
+          <t>2023-12-08</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>unicredit</t>
+          <t>vertex</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>UniCredit profits beat expectations</t>
+          <t>Crispr gene editing technology could transform medicine | FT Tech</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/9b19710d-61ed-4a83-bbae-219b4e9f7e32</t>
+          <t>https://www.ft.com/video/5053951c-1c3f-41fc-a0d3-bdf1a35aa9b6</t>
         </is>
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>2024-02-05</t>
+          <t>2023-12-05</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>unicredit</t>
+          <t>vertex</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>UniCredit to return €8.6bn to shareholders</t>
+          <t>UK approves Crispr gene editing therapy in global first</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/8221616a-69a2-4c4f-9b0a-022dd06f2af1</t>
+          <t>https://www.ft.com/content/ab87cac0-4b13-4b08-a6b7-77875a77dc55</t>
         </is>
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>2024-02-05</t>
+          <t>2023-11-16</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>unicredit</t>
+          <t>vertex</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>Risers and fallers in Europe</t>
+          <t>UK approves Crispr gene editing therapy in global first</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/f11851a3-2a45-4a35-bff2-f6176003dbd7</t>
+          <t>https://www.ft.com/content/39bb3146-7861-4e39-be52-6ae895600601</t>
         </is>
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>2024-02-05</t>
+          <t>2023-11-16</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>unicredit</t>
+          <t>vertex</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>UniCredit removed from list of global systemically important banks</t>
+          <t>Horology in the UK</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/05d5a97d-0b50-4cf3-896c-0b4344e64467</t>
+          <t>https://www.ft.com/content/174af886-442e-4aad-b263-f0e5e48d7349</t>
         </is>
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>2023-11-27</t>
+          <t>2023-11-16</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>unicredit</t>
+          <t>vertex</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>Italian banks: remedy to MPS’s ills was Lovaglio, actually</t>
+          <t>FirstFT: US and China to resume high-level military communication</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/3972212a-79a8-4aa9-91c1-393deb84fa8d</t>
+          <t>https://www.ft.com/content/47edcd0e-1778-430b-80aa-c1e7f4850855</t>
         </is>
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>2023-11-21</t>
+          <t>2023-11-16</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>unicredit</t>
+          <t>vertex</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>Comparisons are odious for London’s stock market</t>
+          <t>Covid vaccine winners suffer reversal of fortune</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/9be715ca-85ab-46a1-911e-5ffeb13bbc73</t>
+          <t>https://www.ft.com/content/efeabfcf-4810-4d50-9442-212ab39f3a4a</t>
         </is>
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>2023-10-27</t>
+          <t>2023-10-03</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>unicredit</t>
+          <t>vertex</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>UniCredit/Barclays: investors discount boom as bad omen</t>
+          <t>BYD makes its move and China suppliers go easy on hiring</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/91697b58-1b8b-4f14-a62c-66c1b6c8857d</t>
+          <t>https://www.ft.com/content/4269ffa4-0fba-40fb-aa5c-70d3631cc204</t>
         </is>
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>2023-10-24</t>
+          <t>2023-08-31</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>unicredit</t>
+          <t>vertex</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>UniCredit plans €6.5bn of shareholder distribution after higher rates boost earnings</t>
+          <t>Non-profit and industry investors propose paediatric cancer fund</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/757fb100-6e36-49f5-aede-46ebde705e64</t>
+          <t>https://www.ft.com/content/2f939fbd-06ee-46c5-a956-800266d5dd86</t>
         </is>
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>2023-10-24</t>
+          <t>2023-08-29</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>unicredit</t>
+          <t>vertex</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>UniCredit to set aside €1.1bn to avoid paying one-off windfall tax</t>
+          <t>Big Pharma dealmaking recovers with $85bn M&amp;A splurge</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/ffa8eb80-8335-4e1f-b228-d728666951e3</t>
+          <t>https://www.ft.com/content/e03d746c-e74c-4e95-8d12-d1edef2880d7</t>
         </is>
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>2023-10-24</t>
+          <t>2023-06-12</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>unicredit</t>
+          <t>vertex</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>Why Chevron is inking the biggest deal in its history</t>
+          <t>Cost of gene treatments for once incurable diseases too high, scientists warn</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/1478498e-8e70-44c5-87a5-5b56896f9452</t>
+          <t>https://www.ft.com/content/0f3e32bf-10b7-4ec2-b4e0-6792fad10929</t>
         </is>
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>2023-10-24</t>
+          <t>2023-03-08</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>unicredit</t>
+          <t>vertex</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>UniCredit strikes first deal of Andrea Orcel era with Greek tie-up</t>
+          <t>Big pharma groups rejoin battle with governments on drug prices</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/4e8f520e-f49f-48ef-964b-7f01347a7ed7</t>
+          <t>https://www.ft.com/content/f77cac8c-9c75-4c77-9d63-d3d5c1c3965b</t>
         </is>
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>2023-10-23</t>
+          <t>2023-01-24</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>unicredit</t>
+          <t>vertex</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>What to watch in Europe today</t>
+          <t>Gene therapies may cure disease but can we afford them?</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/07ebd555-07b8-447e-bdcc-536b51958d4f</t>
+          <t>https://www.ft.com/content/8173d816-1167-4773-bad5-f565fed3ffde</t>
         </is>
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>2023-10-23</t>
+          <t>2022-12-15</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>unicredit</t>
+          <t>vertex</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Saving Atos: Jean-Pierre Mustier handed one of France’s messiest rescue missions</t>
+          <t>From Grab to Sea, Asean tech confronts end of golden decade</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/f89768b9-a3e1-47c5-a5f2-0af4886db691</t>
+          <t>https://www.ft.com/content/e2792f1a-0d75-4450-aefb-fe3ca77c0c12</t>
         </is>
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t>2023-10-22</t>
+          <t>2022-11-06</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>unicredit</t>
+          <t>vertex</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>IT services group Atos appoints Mustier as chair</t>
+          <t>Revolutionary Crispr gene editing speeds from lab to treatment room</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/fa114860-2951-47ea-acad-00ac077f0dd8</t>
+          <t>https://www.ft.com/content/e3c12117-190c-4fc9-9988-57eb9ab9de56</t>
         </is>
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>2023-10-16</t>
+          <t>2022-08-19</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>unicredit</t>
+          <t>vertex</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>UniCredit increases profit guidance on record first half results</t>
+          <t>Hong Kong, Singapore investors tread carefully on Spac listings</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/20f419da-eaa7-4df4-b057-807595023201</t>
+          <t>https://www.ft.com/content/620945a2-301f-44bc-9096-a8317a4b4a5e</t>
         </is>
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>2023-07-26</t>
+          <t>2022-03-31</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>unicredit</t>
+          <t>vertex</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>UniCredit raises 2023 profit guidance after record quarter</t>
+          <t>What to watch in Asia today</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/7a93d10a-2fec-4841-9c2b-b406f2573bf6</t>
+          <t>https://www.ft.com/content/f4a2825c-94e6-45c7-8369-6a4788e3ab9b</t>
         </is>
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>2023-05-03</t>
+          <t>2022-01-19</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>unicredit</t>
+          <t>vertex</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>UniCredit/BPM: a tempting morsel for another day</t>
+          <t>Binance in talks with sovereign wealth funds as it seeks investments</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/d0ad5283-b68c-471a-8ab9-5f4ccee590d3</t>
+          <t>https://www.ft.com/content/006b727a-cc20-403e-ad53-6a23571e6c1c</t>
         </is>
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>2023-04-19</t>
+          <t>2021-11-23</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>unicredit</t>
+          <t>vertex</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>UniCredit shareholders back chief executive Andrea Orcel’s 30% pay rise</t>
+          <t>Stakes rise for Singapore’s big crypto bet</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/9d9f9be3-5481-467b-946b-ca583cd41b86</t>
+          <t>https://www.ft.com/content/1f948b38-2061-416d-951d-69415b879c17</t>
         </is>
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2021-09-30</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>unicredit</t>
+          <t>vertex</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>UniCredit shareholders back CEO Orcel’s pay package</t>
+          <t>US tech and UK banks head earnings bonanza, Fed rate meeting</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/6db56bbb-4dd6-4ffc-a201-e804a89bcaf2</t>
+          <t>https://www.ft.com/content/758b2a22-2db3-404e-ba2f-d849c8ae8e20</t>
         </is>
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2021-04-25</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>unicredit</t>
+          <t>vertex</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Letter: UniCredit piece contained ‘several fundamental flaws’</t>
+          <t>Pharma industry seizes on pandemic as a shot at redemption</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/dbf43092-283a-4989-8b55-581583544d53</t>
+          <t>https://www.ft.com/content/de90c59e-3cfb-43c4-8d30-d13dbe3962ae</t>
         </is>
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>2023-03-17</t>
+          <t>2020-07-06</t>
         </is>
       </c>
     </row>
@@ -11969,1071 +11969,543 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Singapore, Hong Kong Spac failures highlight thwarted ambitions</t>
+          <t>Royalty Pharma: king for a day</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/e5f03221-4d8f-4cc7-b36a-c3dacfe5949d</t>
+          <t>https://www.ft.com/content/4b06c524-df1f-411c-9dd0-1adae2e312c3</t>
         </is>
       </c>
       <c r="D525" t="inlineStr">
         <is>
-          <t>2024-02-20</t>
+          <t>2020-06-17</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>vertex</t>
+          <t>walmart</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Pakistan elections, peak earnings season and lunar new year</t>
+          <t>Walmart is coming for your TVs</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/fb779bcd-fbde-40b9-9f50-71bac80d9e0a</t>
+          <t>https://www.ft.com/content/24f7cfe3-4b1c-433b-ab84-15172b614583</t>
         </is>
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>2024-02-04</t>
+          <t>2024-03-02</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>vertex</t>
+          <t>walmart</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Risers and fallers in the US</t>
+          <t>Walmart flags sales slowdown and announces deal for TV maker Vizio</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/4698029c-8cc1-4612-a2ab-98f67c347fd5</t>
+          <t>https://www.ft.com/content/97eea662-5f2a-4572-b879-7015823b17c4</t>
         </is>
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>2023-12-13</t>
+          <t>2024-02-20</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>vertex</t>
+          <t>walmart</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>US drug regulator approves Crispr gene editing therapy</t>
+          <t>Walmart says inflation was stickier than expected in latest quarter</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/8db7fcaa-eac6-43fa-8f46-6875a703fc14</t>
+          <t>https://www.ft.com/content/1f17df75-4b4b-47da-a3db-940bcedbd09a</t>
         </is>
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>2023-12-08</t>
+          <t>2024-02-20</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>vertex</t>
+          <t>walmart</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>Crispr gene editing technology could transform medicine | FT Tech</t>
+          <t>US stocks follow European indices lower</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>https://www.ft.com/video/5053951c-1c3f-41fc-a0d3-bdf1a35aa9b6</t>
+          <t>https://www.ft.com/content/00dd3859-ebad-476a-b19a-a16e883d4395</t>
         </is>
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>2023-12-05</t>
+          <t>2024-02-20</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>vertex</t>
+          <t>walmart</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>UK approves Crispr gene editing therapy in global first</t>
+          <t>What to watch in North America today</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/ab87cac0-4b13-4b08-a6b7-77875a77dc55</t>
+          <t>https://www.ft.com/content/abf8f4c3-134c-4b26-8a3c-9812ef0cedc9</t>
         </is>
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2024-02-20</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>vertex</t>
+          <t>walmart</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>UK approves Crispr gene editing therapy in global first</t>
+          <t>South Carolina holds primaries as Super Tuesday nears</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/39bb3146-7861-4e39-be52-6ae895600601</t>
+          <t>https://www.ft.com/content/adf6f2ce-ffeb-412e-9688-664d4b7b17f2</t>
         </is>
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2024-02-18</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>vertex</t>
+          <t>walmart</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>Horology in the UK</t>
+          <t>The dilemma of the supercompany</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/174af886-442e-4aad-b263-f0e5e48d7349</t>
+          <t>https://www.ft.com/content/b7dc2f29-7f2d-4e5e-8e46-9cd22777607e</t>
         </is>
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2024-02-15</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>vertex</t>
+          <t>walmart</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>FirstFT: US and China to resume high-level military communication</t>
+          <t>FTAV’s further reading</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/47edcd0e-1778-430b-80aa-c1e7f4850855</t>
+          <t>https://www.ft.com/content/ad5136a1-bf62-4681-8099-da9628bfa252</t>
         </is>
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2024-01-24</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>vertex</t>
+          <t>walmart</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>Covid vaccine winners suffer reversal of fortune</t>
+          <t>Walmart boosts average store manager salaries to $128,000</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/efeabfcf-4810-4d50-9442-212ab39f3a4a</t>
+          <t>https://www.ft.com/content/528cac95-3996-433c-8d48-e189c384135b</t>
         </is>
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>2023-10-03</t>
+          <t>2024-01-18</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>vertex</t>
+          <t>walmart</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>BYD makes its move and China suppliers go easy on hiring</t>
+          <t>Chewy: pet supply retailer could be leashed by an acquirer</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/4269ffa4-0fba-40fb-aa5c-70d3631cc204</t>
+          <t>https://www.ft.com/content/dfccc447-a166-4e4e-bc1e-f822fe5b0740</t>
         </is>
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-12-07</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>vertex</t>
+          <t>walmart</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>Non-profit and industry investors propose paediatric cancer fund</t>
+          <t>Anatomy of a slowdown</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/2f939fbd-06ee-46c5-a956-800266d5dd86</t>
+          <t>https://www.ft.com/content/5c6bddb8-ea58-4218-bb45-7934d2de1514</t>
         </is>
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>2023-08-29</t>
+          <t>2023-11-20</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>vertex</t>
+          <t>walmart</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>Big Pharma dealmaking recovers with $85bn M&amp;A splurge</t>
+          <t>The Lex Newsletter: are we nearly there yet?</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/e03d746c-e74c-4e95-8d12-d1edef2880d7</t>
+          <t>https://www.ft.com/content/ffeb8634-12cb-4308-b26c-6c44c8e32405</t>
         </is>
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>2023-06-12</t>
+          <t>2023-11-17</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>vertex</t>
+          <t>walmart</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>Cost of gene treatments for once incurable diseases too high, scientists warn</t>
+          <t>Transcript: What does Walmart know?</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/0f3e32bf-10b7-4ec2-b4e0-6792fad10929</t>
+          <t>https://www.ft.com/content/11bd5e35-8377-42af-bf48-d22a1a952370</t>
         </is>
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2023-11-16</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>vertex</t>
+          <t>walmart</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>Big pharma groups rejoin battle with governments on drug prices</t>
+          <t>Walmart boosts outlook after ‘strong’ revenue growth in latest quarter</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/f77cac8c-9c75-4c77-9d63-d3d5c1c3965b</t>
+          <t>https://www.ft.com/content/7111c7a1-153b-48d9-bb3e-e9485e7e477a</t>
         </is>
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>2023-01-24</t>
+          <t>2023-11-16</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>vertex</t>
+          <t>walmart</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>Gene therapies may cure disease but can we afford them?</t>
+          <t>Walmart: deflating prices can be good for business</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/8173d816-1167-4773-bad5-f565fed3ffde</t>
+          <t>https://www.ft.com/content/7b688454-1616-4c15-bdce-0ed3bf1ed325</t>
         </is>
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>2022-12-15</t>
+          <t>2023-11-16</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>vertex</t>
+          <t>walmart</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>From Grab to Sea, Asean tech confronts end of golden decade</t>
+          <t>What does Walmart know?</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/e2792f1a-0d75-4450-aefb-fe3ca77c0c12</t>
+          <t>https://www.ft.com/content/2a751bea-7f72-4204-9d6d-847f33cf5017</t>
         </is>
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>2022-11-06</t>
+          <t>2023-11-16</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>vertex</t>
+          <t>walmart</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>Revolutionary Crispr gene editing speeds from lab to treatment room</t>
+          <t>Walmart tumbles 8% on cautious holiday outlook for consumer spending</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/e3c12117-190c-4fc9-9988-57eb9ab9de56</t>
+          <t>https://www.ft.com/content/82c9d0bc-6228-476e-8b49-bc1cb583102d</t>
         </is>
       </c>
       <c r="D542" t="inlineStr">
         <is>
-          <t>2022-08-19</t>
+          <t>2023-11-16</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>vertex</t>
+          <t>walmart</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>Hong Kong, Singapore investors tread carefully on Spac listings</t>
+          <t>What to watch in North America today</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/620945a2-301f-44bc-9096-a8317a4b4a5e</t>
+          <t>https://www.ft.com/content/072bf918-d08a-460e-a02a-5d912b4aa4a3</t>
         </is>
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t>2022-03-31</t>
+          <t>2023-11-16</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>vertex</t>
+          <t>walmart</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>What to watch in Asia today</t>
+          <t>Walmart and DoorDash shun UN human rights rapporteur</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/f4a2825c-94e6-45c7-8369-6a4788e3ab9b</t>
+          <t>https://www.ft.com/content/efc1d320-9ee2-45d2-ac11-476479e5ac31</t>
         </is>
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t>2022-01-19</t>
+          <t>2023-11-01</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>vertex</t>
+          <t>walmart</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>Binance in talks with sovereign wealth funds as it seeks investments</t>
+          <t>Walmart raises full-year guidance as sales and profit beat expectations</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/006b727a-cc20-403e-ad53-6a23571e6c1c</t>
+          <t>https://www.ft.com/content/20c1e460-ce31-4f4d-8e62-d599f079d7f0</t>
         </is>
       </c>
       <c r="D545" t="inlineStr">
         <is>
-          <t>2021-11-23</t>
+          <t>2023-08-17</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>vertex</t>
+          <t>walmart</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>Stakes rise for Singapore’s big crypto bet</t>
+          <t>Walmart sales rise as inflation keeps consumers hunting for bargains</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/1f948b38-2061-416d-951d-69415b879c17</t>
+          <t>https://www.ft.com/content/fcac24ea-66ad-4366-97c1-ef3bbb614759</t>
         </is>
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>2021-09-30</t>
+          <t>2023-08-17</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>vertex</t>
+          <t>walmart</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>US tech and UK banks head earnings bonanza, Fed rate meeting</t>
+          <t>Amazon falls behind Walmart in battle for India’s online shoppers</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/758b2a22-2db3-404e-ba2f-d849c8ae8e20</t>
+          <t>https://www.ft.com/content/8abcbadb-72e1-4efe-9ba3-dc18870a94c5</t>
         </is>
       </c>
       <c r="D547" t="inlineStr">
         <is>
-          <t>2021-04-25</t>
+          <t>2023-05-20</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>vertex</t>
+          <t>walmart</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>Pharma industry seizes on pandemic as a shot at redemption</t>
+          <t>Walmart bucks cautious tone from rivals with forecast-beating results</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/de90c59e-3cfb-43c4-8d30-d13dbe3962ae</t>
+          <t>https://www.ft.com/content/f28f6af8-9cda-4580-9beb-58e4f67cb7a0</t>
         </is>
       </c>
       <c r="D548" t="inlineStr">
         <is>
-          <t>2020-07-06</t>
+          <t>2023-05-18</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>vertex</t>
+          <t>walmart</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>Royalty Pharma: king for a day</t>
+          <t>Walmart raises guidance after first-quarter results top expectations</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>https://www.ft.com/content/4b06c524-df1f-411c-9dd0-1adae2e312c3</t>
+          <t>https://www.ft.com/content/2ecc5567-3b97-4146-9785-0ab021f5f50d</t>
         </is>
       </c>
       <c r="D549" t="inlineStr">
-        <is>
-          <t>2020-06-17</t>
-        </is>
-      </c>
-    </row>
-    <row r="550">
-      <c r="A550" t="inlineStr">
-        <is>
-          <t>walmart</t>
-        </is>
-      </c>
-      <c r="B550" t="inlineStr">
-        <is>
-          <t>Walmart is coming for your TVs</t>
-        </is>
-      </c>
-      <c r="C550" t="inlineStr">
-        <is>
-          <t>https://www.ft.com/content/24f7cfe3-4b1c-433b-ab84-15172b614583</t>
-        </is>
-      </c>
-      <c r="D550" t="inlineStr">
-        <is>
-          <t>2024-03-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="551">
-      <c r="A551" t="inlineStr">
-        <is>
-          <t>walmart</t>
-        </is>
-      </c>
-      <c r="B551" t="inlineStr">
-        <is>
-          <t>Walmart flags sales slowdown and announces deal for TV maker Vizio</t>
-        </is>
-      </c>
-      <c r="C551" t="inlineStr">
-        <is>
-          <t>https://www.ft.com/content/97eea662-5f2a-4572-b879-7015823b17c4</t>
-        </is>
-      </c>
-      <c r="D551" t="inlineStr">
-        <is>
-          <t>2024-02-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="552">
-      <c r="A552" t="inlineStr">
-        <is>
-          <t>walmart</t>
-        </is>
-      </c>
-      <c r="B552" t="inlineStr">
-        <is>
-          <t>Walmart says inflation was stickier than expected in latest quarter</t>
-        </is>
-      </c>
-      <c r="C552" t="inlineStr">
-        <is>
-          <t>https://www.ft.com/content/1f17df75-4b4b-47da-a3db-940bcedbd09a</t>
-        </is>
-      </c>
-      <c r="D552" t="inlineStr">
-        <is>
-          <t>2024-02-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="553">
-      <c r="A553" t="inlineStr">
-        <is>
-          <t>walmart</t>
-        </is>
-      </c>
-      <c r="B553" t="inlineStr">
-        <is>
-          <t>US stocks follow European indices lower</t>
-        </is>
-      </c>
-      <c r="C553" t="inlineStr">
-        <is>
-          <t>https://www.ft.com/content/00dd3859-ebad-476a-b19a-a16e883d4395</t>
-        </is>
-      </c>
-      <c r="D553" t="inlineStr">
-        <is>
-          <t>2024-02-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="554">
-      <c r="A554" t="inlineStr">
-        <is>
-          <t>walmart</t>
-        </is>
-      </c>
-      <c r="B554" t="inlineStr">
-        <is>
-          <t>What to watch in North America today</t>
-        </is>
-      </c>
-      <c r="C554" t="inlineStr">
-        <is>
-          <t>https://www.ft.com/content/abf8f4c3-134c-4b26-8a3c-9812ef0cedc9</t>
-        </is>
-      </c>
-      <c r="D554" t="inlineStr">
-        <is>
-          <t>2024-02-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="555">
-      <c r="A555" t="inlineStr">
-        <is>
-          <t>walmart</t>
-        </is>
-      </c>
-      <c r="B555" t="inlineStr">
-        <is>
-          <t>South Carolina holds primaries as Super Tuesday nears</t>
-        </is>
-      </c>
-      <c r="C555" t="inlineStr">
-        <is>
-          <t>https://www.ft.com/content/adf6f2ce-ffeb-412e-9688-664d4b7b17f2</t>
-        </is>
-      </c>
-      <c r="D555" t="inlineStr">
-        <is>
-          <t>2024-02-18</t>
-        </is>
-      </c>
-    </row>
-    <row r="556">
-      <c r="A556" t="inlineStr">
-        <is>
-          <t>walmart</t>
-        </is>
-      </c>
-      <c r="B556" t="inlineStr">
-        <is>
-          <t>The dilemma of the supercompany</t>
-        </is>
-      </c>
-      <c r="C556" t="inlineStr">
-        <is>
-          <t>https://www.ft.com/content/b7dc2f29-7f2d-4e5e-8e46-9cd22777607e</t>
-        </is>
-      </c>
-      <c r="D556" t="inlineStr">
-        <is>
-          <t>2024-02-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="557">
-      <c r="A557" t="inlineStr">
-        <is>
-          <t>walmart</t>
-        </is>
-      </c>
-      <c r="B557" t="inlineStr">
-        <is>
-          <t>FTAV’s further reading</t>
-        </is>
-      </c>
-      <c r="C557" t="inlineStr">
-        <is>
-          <t>https://www.ft.com/content/ad5136a1-bf62-4681-8099-da9628bfa252</t>
-        </is>
-      </c>
-      <c r="D557" t="inlineStr">
-        <is>
-          <t>2024-01-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="558">
-      <c r="A558" t="inlineStr">
-        <is>
-          <t>walmart</t>
-        </is>
-      </c>
-      <c r="B558" t="inlineStr">
-        <is>
-          <t>Walmart boosts average store manager salaries to $128,000</t>
-        </is>
-      </c>
-      <c r="C558" t="inlineStr">
-        <is>
-          <t>https://www.ft.com/content/528cac95-3996-433c-8d48-e189c384135b</t>
-        </is>
-      </c>
-      <c r="D558" t="inlineStr">
-        <is>
-          <t>2024-01-18</t>
-        </is>
-      </c>
-    </row>
-    <row r="559">
-      <c r="A559" t="inlineStr">
-        <is>
-          <t>walmart</t>
-        </is>
-      </c>
-      <c r="B559" t="inlineStr">
-        <is>
-          <t>Chewy: pet supply retailer could be leashed by an acquirer</t>
-        </is>
-      </c>
-      <c r="C559" t="inlineStr">
-        <is>
-          <t>https://www.ft.com/content/dfccc447-a166-4e4e-bc1e-f822fe5b0740</t>
-        </is>
-      </c>
-      <c r="D559" t="inlineStr">
-        <is>
-          <t>2023-12-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="560">
-      <c r="A560" t="inlineStr">
-        <is>
-          <t>walmart</t>
-        </is>
-      </c>
-      <c r="B560" t="inlineStr">
-        <is>
-          <t>Anatomy of a slowdown</t>
-        </is>
-      </c>
-      <c r="C560" t="inlineStr">
-        <is>
-          <t>https://www.ft.com/content/5c6bddb8-ea58-4218-bb45-7934d2de1514</t>
-        </is>
-      </c>
-      <c r="D560" t="inlineStr">
-        <is>
-          <t>2023-11-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="561">
-      <c r="A561" t="inlineStr">
-        <is>
-          <t>walmart</t>
-        </is>
-      </c>
-      <c r="B561" t="inlineStr">
-        <is>
-          <t>The Lex Newsletter: are we nearly there yet?</t>
-        </is>
-      </c>
-      <c r="C561" t="inlineStr">
-        <is>
-          <t>https://www.ft.com/content/ffeb8634-12cb-4308-b26c-6c44c8e32405</t>
-        </is>
-      </c>
-      <c r="D561" t="inlineStr">
-        <is>
-          <t>2023-11-17</t>
-        </is>
-      </c>
-    </row>
-    <row r="562">
-      <c r="A562" t="inlineStr">
-        <is>
-          <t>walmart</t>
-        </is>
-      </c>
-      <c r="B562" t="inlineStr">
-        <is>
-          <t>Transcript: What does Walmart know?</t>
-        </is>
-      </c>
-      <c r="C562" t="inlineStr">
-        <is>
-          <t>https://www.ft.com/content/11bd5e35-8377-42af-bf48-d22a1a952370</t>
-        </is>
-      </c>
-      <c r="D562" t="inlineStr">
-        <is>
-          <t>2023-11-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="563">
-      <c r="A563" t="inlineStr">
-        <is>
-          <t>walmart</t>
-        </is>
-      </c>
-      <c r="B563" t="inlineStr">
-        <is>
-          <t>Walmart boosts outlook after ‘strong’ revenue growth in latest quarter</t>
-        </is>
-      </c>
-      <c r="C563" t="inlineStr">
-        <is>
-          <t>https://www.ft.com/content/7111c7a1-153b-48d9-bb3e-e9485e7e477a</t>
-        </is>
-      </c>
-      <c r="D563" t="inlineStr">
-        <is>
-          <t>2023-11-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="564">
-      <c r="A564" t="inlineStr">
-        <is>
-          <t>walmart</t>
-        </is>
-      </c>
-      <c r="B564" t="inlineStr">
-        <is>
-          <t>Walmart: deflating prices can be good for business</t>
-        </is>
-      </c>
-      <c r="C564" t="inlineStr">
-        <is>
-          <t>https://www.ft.com/content/7b688454-1616-4c15-bdce-0ed3bf1ed325</t>
-        </is>
-      </c>
-      <c r="D564" t="inlineStr">
-        <is>
-          <t>2023-11-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="565">
-      <c r="A565" t="inlineStr">
-        <is>
-          <t>walmart</t>
-        </is>
-      </c>
-      <c r="B565" t="inlineStr">
-        <is>
-          <t>What does Walmart know?</t>
-        </is>
-      </c>
-      <c r="C565" t="inlineStr">
-        <is>
-          <t>https://www.ft.com/content/2a751bea-7f72-4204-9d6d-847f33cf5017</t>
-        </is>
-      </c>
-      <c r="D565" t="inlineStr">
-        <is>
-          <t>2023-11-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="566">
-      <c r="A566" t="inlineStr">
-        <is>
-          <t>walmart</t>
-        </is>
-      </c>
-      <c r="B566" t="inlineStr">
-        <is>
-          <t>Walmart tumbles 8% on cautious holiday outlook for consumer spending</t>
-        </is>
-      </c>
-      <c r="C566" t="inlineStr">
-        <is>
-          <t>https://www.ft.com/content/82c9d0bc-6228-476e-8b49-bc1cb583102d</t>
-        </is>
-      </c>
-      <c r="D566" t="inlineStr">
-        <is>
-          <t>2023-11-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="567">
-      <c r="A567" t="inlineStr">
-        <is>
-          <t>walmart</t>
-        </is>
-      </c>
-      <c r="B567" t="inlineStr">
-        <is>
-          <t>What to watch in North America today</t>
-        </is>
-      </c>
-      <c r="C567" t="inlineStr">
-        <is>
-          <t>https://www.ft.com/content/072bf918-d08a-460e-a02a-5d912b4aa4a3</t>
-        </is>
-      </c>
-      <c r="D567" t="inlineStr">
-        <is>
-          <t>2023-11-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="568">
-      <c r="A568" t="inlineStr">
-        <is>
-          <t>walmart</t>
-        </is>
-      </c>
-      <c r="B568" t="inlineStr">
-        <is>
-          <t>Walmart and DoorDash shun UN human rights rapporteur</t>
-        </is>
-      </c>
-      <c r="C568" t="inlineStr">
-        <is>
-          <t>https://www.ft.com/content/efc1d320-9ee2-45d2-ac11-476479e5ac31</t>
-        </is>
-      </c>
-      <c r="D568" t="inlineStr">
-        <is>
-          <t>2023-11-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="569">
-      <c r="A569" t="inlineStr">
-        <is>
-          <t>walmart</t>
-        </is>
-      </c>
-      <c r="B569" t="inlineStr">
-        <is>
-          <t>Walmart raises full-year guidance as sales and profit beat expectations</t>
-        </is>
-      </c>
-      <c r="C569" t="inlineStr">
-        <is>
-          <t>https://www.ft.com/content/20c1e460-ce31-4f4d-8e62-d599f079d7f0</t>
-        </is>
-      </c>
-      <c r="D569" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
-    </row>
-    <row r="570">
-      <c r="A570" t="inlineStr">
-        <is>
-          <t>walmart</t>
-        </is>
-      </c>
-      <c r="B570" t="inlineStr">
-        <is>
-          <t>Walmart sales rise as inflation keeps consumers hunting for bargains</t>
-        </is>
-      </c>
-      <c r="C570" t="inlineStr">
-        <is>
-          <t>https://www.ft.com/content/fcac24ea-66ad-4366-97c1-ef3bbb614759</t>
-        </is>
-      </c>
-      <c r="D570" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
-    </row>
-    <row r="571">
-      <c r="A571" t="inlineStr">
-        <is>
-          <t>walmart</t>
-        </is>
-      </c>
-      <c r="B571" t="inlineStr">
-        <is>
-          <t>Amazon falls behind Walmart in battle for India’s online shoppers</t>
-        </is>
-      </c>
-      <c r="C571" t="inlineStr">
-        <is>
-          <t>https://www.ft.com/content/8abcbadb-72e1-4efe-9ba3-dc18870a94c5</t>
-        </is>
-      </c>
-      <c r="D571" t="inlineStr">
-        <is>
-          <t>2023-05-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="572">
-      <c r="A572" t="inlineStr">
-        <is>
-          <t>walmart</t>
-        </is>
-      </c>
-      <c r="B572" t="inlineStr">
-        <is>
-          <t>Walmart bucks cautious tone from rivals with forecast-beating results</t>
-        </is>
-      </c>
-      <c r="C572" t="inlineStr">
-        <is>
-          <t>https://www.ft.com/content/f28f6af8-9cda-4580-9beb-58e4f67cb7a0</t>
-        </is>
-      </c>
-      <c r="D572" t="inlineStr">
-        <is>
-          <t>2023-05-18</t>
-        </is>
-      </c>
-    </row>
-    <row r="573">
-      <c r="A573" t="inlineStr">
-        <is>
-          <t>walmart</t>
-        </is>
-      </c>
-      <c r="B573" t="inlineStr">
-        <is>
-          <t>Walmart raises guidance after first-quarter results top expectations</t>
-        </is>
-      </c>
-      <c r="C573" t="inlineStr">
-        <is>
-          <t>https://www.ft.com/content/2ecc5567-3b97-4146-9785-0ab021f5f50d</t>
-        </is>
-      </c>
-      <c r="D573" t="inlineStr">
         <is>
           <t>2023-05-18</t>
         </is>
